--- a/Newrifmutdata/Newmutdata/newpaper.xlsx
+++ b/Newrifmutdata/Newmutdata/newpaper.xlsx
@@ -5588,8 +5588,8 @@
   <sheetPr/>
   <dimension ref="A1:Z180"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Z10" sqref="Z10"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="I7" workbookViewId="0">
+      <selection activeCell="Z29" sqref="Z29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -6022,7 +6022,7 @@
       <c r="E9">
         <v>2021</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="3" t="s">
         <v>90</v>
       </c>
       <c r="H9" t="s">
@@ -6069,7 +6069,7 @@
       <c r="E10">
         <v>2020</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="3" t="s">
         <v>98</v>
       </c>
       <c r="H10" t="s">
@@ -6100,7 +6100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:26">
       <c r="A11" t="s">
         <v>103</v>
       </c>
@@ -6143,8 +6143,11 @@
       <c r="W11" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="12" spans="1:23">
+      <c r="Z11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
       <c r="A12" t="s">
         <v>112</v>
       </c>
@@ -6187,8 +6190,11 @@
       <c r="W12" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="13" spans="1:23">
+      <c r="Z12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
       <c r="A13" t="s">
         <v>120</v>
       </c>
@@ -6231,8 +6237,11 @@
       <c r="W13" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="14" spans="1:23">
+      <c r="Z13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
       <c r="A14" t="s">
         <v>129</v>
       </c>
@@ -6248,7 +6257,7 @@
       <c r="E14">
         <v>2018</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="1" t="s">
         <v>133</v>
       </c>
       <c r="H14" t="s">
@@ -6275,8 +6284,11 @@
       <c r="W14" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="15" spans="1:23">
+      <c r="Z14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
       <c r="A15" t="s">
         <v>138</v>
       </c>
@@ -6292,7 +6304,7 @@
       <c r="E15">
         <v>2018</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="1" t="s">
         <v>141</v>
       </c>
       <c r="H15" t="s">
@@ -6319,8 +6331,11 @@
       <c r="W15" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="16" spans="1:23">
+      <c r="Z15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
       <c r="A16" t="s">
         <v>146</v>
       </c>
@@ -6336,7 +6351,7 @@
       <c r="E16">
         <v>2018</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="1" t="s">
         <v>150</v>
       </c>
       <c r="H16" t="s">
@@ -6363,8 +6378,11 @@
       <c r="W16" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="17" spans="1:23">
+      <c r="Z16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26">
       <c r="A17" t="s">
         <v>155</v>
       </c>
@@ -6380,7 +6398,7 @@
       <c r="E17">
         <v>2017</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="1" t="s">
         <v>159</v>
       </c>
       <c r="H17" t="s">
@@ -6407,8 +6425,11 @@
       <c r="W17" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="18" spans="1:23">
+      <c r="Z17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26">
       <c r="A18" t="s">
         <v>164</v>
       </c>
@@ -6424,7 +6445,7 @@
       <c r="E18">
         <v>2016</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="1" t="s">
         <v>168</v>
       </c>
       <c r="H18" t="s">
@@ -6451,8 +6472,11 @@
       <c r="W18" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="19" spans="1:23">
+      <c r="Z18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26">
       <c r="A19" t="s">
         <v>173</v>
       </c>
@@ -6468,7 +6492,7 @@
       <c r="E19">
         <v>2016</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="1" t="s">
         <v>177</v>
       </c>
       <c r="H19" t="s">
@@ -6495,8 +6519,11 @@
       <c r="W19" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="20" spans="1:23">
+      <c r="Z19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26">
       <c r="A20" t="s">
         <v>182</v>
       </c>
@@ -6512,7 +6539,7 @@
       <c r="E20">
         <v>2016</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="1" t="s">
         <v>185</v>
       </c>
       <c r="H20" t="s">
@@ -6539,8 +6566,11 @@
       <c r="W20" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="21" spans="1:23">
+      <c r="Z20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26">
       <c r="A21" t="s">
         <v>190</v>
       </c>
@@ -6556,7 +6586,7 @@
       <c r="E21">
         <v>2016</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G21" s="1" t="s">
         <v>194</v>
       </c>
       <c r="H21" t="s">
@@ -6583,8 +6613,11 @@
       <c r="W21" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="22" spans="1:23">
+      <c r="Z21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26">
       <c r="A22" t="s">
         <v>199</v>
       </c>
@@ -6600,7 +6633,7 @@
       <c r="E22">
         <v>2016</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G22" s="1" t="s">
         <v>203</v>
       </c>
       <c r="H22" t="s">
@@ -6626,6 +6659,9 @@
       </c>
       <c r="W22" t="s">
         <v>207</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:23">

--- a/Newrifmutdata/Newmutdata/newpaper.xlsx
+++ b/Newrifmutdata/Newmutdata/newpaper.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1812" uniqueCount="1466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1814" uniqueCount="1468">
   <si>
     <t>????隆楼????Authors</t>
   </si>
@@ -680,6 +680,9 @@
     <t>10.3390/v8060172</t>
   </si>
   <si>
+    <t>very much data</t>
+  </si>
+  <si>
     <t>Lu, JF; Zhu, Y; Sun, HL; Liang, S; Leng, FF; Li, HY</t>
   </si>
   <si>
@@ -705,6 +708,9 @@
   </si>
   <si>
     <t>10.1111/lam.12546</t>
+  </si>
+  <si>
+    <t>cantaccessed</t>
   </si>
   <si>
     <t>Sacco, E; Cortes, M; Josseaume, N; Bouchier, C; Dub????????e, V; Hugonnet, JE; Mainardi, JL; Rice, LB; Arthur, M</t>
@@ -4437,7 +4443,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4457,6 +4463,21 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4919,128 +4940,128 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5051,6 +5072,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5586,10 +5616,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Z180"/>
+  <dimension ref="A1:AA180"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="I7" workbookViewId="0">
-      <selection activeCell="Z29" sqref="Z29"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="J4" workbookViewId="0">
+      <selection activeCell="Z25" sqref="Z25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -6664,7 +6694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:23">
+    <row r="23" spans="1:27">
       <c r="A23" t="s">
         <v>208</v>
       </c>
@@ -6680,7 +6710,7 @@
       <c r="E23">
         <v>2016</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="G23" s="1" t="s">
         <v>212</v>
       </c>
       <c r="H23" t="s">
@@ -6707,78 +6737,98 @@
       <c r="W23" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="24" spans="1:23">
-      <c r="A24" t="s">
+      <c r="Z23">
+        <v>1</v>
+      </c>
+      <c r="AA23" t="s">
         <v>217</v>
       </c>
-      <c r="B24" t="s">
+    </row>
+    <row r="24" spans="1:26">
+      <c r="A24" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="C24" t="s">
+      <c r="B24" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="D24" t="s">
+      <c r="C24" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="E24">
+      <c r="D24" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="E24" s="5">
         <v>2016</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="H24" t="s">
+      <c r="F24" s="5"/>
+      <c r="G24" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="I24" t="s">
+      <c r="H24" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="J24" t="s">
+      <c r="I24" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="K24">
+      <c r="J24" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="K24" s="5">
         <v>0.585377</v>
       </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24" t="s">
-        <v>223</v>
-      </c>
-      <c r="T24" t="b">
-        <v>0</v>
-      </c>
-      <c r="W24" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23">
+      <c r="L24" s="5">
+        <v>1</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26">
       <c r="A25" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B25" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C25" t="s">
         <v>122</v>
       </c>
       <c r="D25" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E25">
         <v>2015</v>
       </c>
-      <c r="G25" s="3" t="s">
-        <v>229</v>
+      <c r="G25" s="1" t="s">
+        <v>231</v>
       </c>
       <c r="H25" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="I25" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="J25" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="K25">
         <v>0.7286576</v>
@@ -6787,42 +6837,45 @@
         <v>1</v>
       </c>
       <c r="M25" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="T25" t="b">
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>233</v>
+        <v>235</v>
+      </c>
+      <c r="Z25">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:23">
       <c r="A26" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B26" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C26" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D26" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E26">
         <v>2014</v>
       </c>
       <c r="G26" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H26" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="I26" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="J26" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="K26">
         <v>0.6138822</v>
@@ -6831,42 +6884,42 @@
         <v>1</v>
       </c>
       <c r="M26" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="T26" t="b">
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="27" spans="1:23">
       <c r="A27" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B27" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C27" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D27" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E27">
         <v>2014</v>
       </c>
       <c r="G27" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="H27" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="I27" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="J27" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="K27">
         <v>0.49800307</v>
@@ -6875,42 +6928,42 @@
         <v>1</v>
       </c>
       <c r="M27" t="s">
+        <v>251</v>
+      </c>
+      <c r="T27" t="b">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
         <v>249</v>
-      </c>
-      <c r="T27" t="b">
-        <v>0</v>
-      </c>
-      <c r="W27" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="28" spans="1:23">
       <c r="A28" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B28" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C28" t="s">
         <v>122</v>
       </c>
       <c r="D28" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E28">
         <v>2014</v>
       </c>
       <c r="G28" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="H28" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="I28" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="J28" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K28">
         <v>0.63628674</v>
@@ -6919,42 +6972,42 @@
         <v>1</v>
       </c>
       <c r="M28" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="T28" t="b">
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="29" spans="1:23">
       <c r="A29" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B29" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C29" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D29" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E29">
         <v>2013</v>
       </c>
       <c r="G29" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="H29" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="I29" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="J29" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="K29">
         <v>0.65306526</v>
@@ -6963,42 +7016,42 @@
         <v>1</v>
       </c>
       <c r="M29" t="s">
+        <v>267</v>
+      </c>
+      <c r="T29" t="b">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
         <v>265</v>
-      </c>
-      <c r="T29" t="b">
-        <v>0</v>
-      </c>
-      <c r="W29" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="30" spans="1:23">
       <c r="A30" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B30" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C30" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D30" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E30">
         <v>2012</v>
       </c>
       <c r="G30" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="H30" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="I30" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="J30" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="K30">
         <v>0.48463708</v>
@@ -7007,42 +7060,42 @@
         <v>1</v>
       </c>
       <c r="M30" t="s">
+        <v>275</v>
+      </c>
+      <c r="T30" t="b">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
         <v>273</v>
-      </c>
-      <c r="T30" t="b">
-        <v>0</v>
-      </c>
-      <c r="W30" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="31" spans="1:23">
       <c r="A31" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B31" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C31" t="s">
         <v>122</v>
       </c>
       <c r="D31" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E31">
         <v>2012</v>
       </c>
       <c r="G31" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="H31" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="I31" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="J31" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="K31">
         <v>0.6999986</v>
@@ -7051,42 +7104,42 @@
         <v>1</v>
       </c>
       <c r="M31" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="T31" t="b">
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="32" spans="1:23">
       <c r="A32" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B32" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C32" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D32" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E32">
         <v>2012</v>
       </c>
       <c r="G32" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="H32" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="I32" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="J32" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="K32">
         <v>0.55515563</v>
@@ -7095,42 +7148,42 @@
         <v>1</v>
       </c>
       <c r="M32" t="s">
+        <v>291</v>
+      </c>
+      <c r="T32" t="b">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
         <v>289</v>
-      </c>
-      <c r="T32" t="b">
-        <v>0</v>
-      </c>
-      <c r="W32" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="33" spans="1:23">
       <c r="A33" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B33" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C33" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D33" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E33">
         <v>2012</v>
       </c>
       <c r="G33" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="H33" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I33" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="J33" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="K33">
         <v>0.7408736</v>
@@ -7139,42 +7192,42 @@
         <v>1</v>
       </c>
       <c r="M33" t="s">
+        <v>299</v>
+      </c>
+      <c r="T33" t="b">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
         <v>297</v>
-      </c>
-      <c r="T33" t="b">
-        <v>0</v>
-      </c>
-      <c r="W33" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="34" spans="1:23">
       <c r="A34" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B34" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C34" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D34" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E34">
         <v>2011</v>
       </c>
       <c r="G34" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="H34" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="I34" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="J34" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="K34">
         <v>0.8034928</v>
@@ -7183,42 +7236,42 @@
         <v>1</v>
       </c>
       <c r="M34" t="s">
+        <v>307</v>
+      </c>
+      <c r="T34" t="b">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
         <v>305</v>
-      </c>
-      <c r="T34" t="b">
-        <v>0</v>
-      </c>
-      <c r="W34" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="35" spans="1:23">
       <c r="A35" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B35" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C35" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D35" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E35">
         <v>2011</v>
       </c>
       <c r="G35" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="H35" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="I35" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="J35" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="K35">
         <v>0.7693902</v>
@@ -7227,42 +7280,42 @@
         <v>1</v>
       </c>
       <c r="M35" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="T35" t="b">
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="36" spans="1:23">
       <c r="A36" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B36" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C36" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D36" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="E36">
         <v>2010</v>
       </c>
       <c r="G36" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="H36" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="I36" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="J36" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K36">
         <v>0.57130545</v>
@@ -7271,42 +7324,42 @@
         <v>1</v>
       </c>
       <c r="M36" t="s">
+        <v>324</v>
+      </c>
+      <c r="T36" t="b">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
         <v>322</v>
-      </c>
-      <c r="T36" t="b">
-        <v>0</v>
-      </c>
-      <c r="W36" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="37" spans="1:23">
       <c r="A37" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B37" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C37" t="s">
         <v>122</v>
       </c>
       <c r="D37" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E37">
         <v>2010</v>
       </c>
       <c r="G37" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="H37" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="I37" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="J37" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="K37">
         <v>0.8589332</v>
@@ -7315,42 +7368,42 @@
         <v>1</v>
       </c>
       <c r="M37" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="T37" t="b">
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="38" spans="1:23">
       <c r="A38" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B38" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C38" t="s">
         <v>44</v>
       </c>
       <c r="D38" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E38">
         <v>2010</v>
       </c>
       <c r="G38" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="H38" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="I38" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="J38" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="K38">
         <v>0.7155202</v>
@@ -7359,42 +7412,42 @@
         <v>1</v>
       </c>
       <c r="M38" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T38" t="b">
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="39" spans="1:23">
       <c r="A39" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B39" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C39" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D39" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="E39">
         <v>2010</v>
       </c>
       <c r="G39" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H39" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="I39" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="J39" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="K39">
         <v>0.68222815</v>
@@ -7403,42 +7456,42 @@
         <v>1</v>
       </c>
       <c r="M39" t="s">
+        <v>348</v>
+      </c>
+      <c r="T39" t="b">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
         <v>346</v>
-      </c>
-      <c r="T39" t="b">
-        <v>0</v>
-      </c>
-      <c r="W39" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="40" spans="1:23">
       <c r="A40" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B40" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C40" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D40" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E40">
         <v>2009</v>
       </c>
       <c r="G40" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="H40" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="I40" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="J40" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="K40">
         <v>0.72917336</v>
@@ -7447,42 +7500,42 @@
         <v>1</v>
       </c>
       <c r="M40" t="s">
+        <v>356</v>
+      </c>
+      <c r="T40" t="b">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
         <v>354</v>
-      </c>
-      <c r="T40" t="b">
-        <v>0</v>
-      </c>
-      <c r="W40" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="41" spans="1:23">
       <c r="A41" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B41" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C41" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D41" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E41">
         <v>2009</v>
       </c>
       <c r="G41" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="H41" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="I41" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="J41" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="K41">
         <v>0.81088644</v>
@@ -7491,42 +7544,42 @@
         <v>1</v>
       </c>
       <c r="M41" t="s">
+        <v>364</v>
+      </c>
+      <c r="T41" t="b">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
         <v>362</v>
-      </c>
-      <c r="T41" t="b">
-        <v>0</v>
-      </c>
-      <c r="W41" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="42" spans="1:23">
       <c r="A42" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B42" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C42" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D42" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="E42">
         <v>2008</v>
       </c>
       <c r="G42" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="H42" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="I42" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="J42" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="K42">
         <v>0.52280116</v>
@@ -7535,42 +7588,42 @@
         <v>1</v>
       </c>
       <c r="M42" t="s">
+        <v>372</v>
+      </c>
+      <c r="T42" t="b">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
         <v>370</v>
-      </c>
-      <c r="T42" t="b">
-        <v>0</v>
-      </c>
-      <c r="W42" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="43" spans="1:23">
       <c r="A43" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B43" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C43" t="s">
         <v>44</v>
       </c>
       <c r="D43" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="E43">
         <v>2008</v>
       </c>
       <c r="G43" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="H43" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="I43" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="J43" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="K43">
         <v>0.7634099</v>
@@ -7579,42 +7632,42 @@
         <v>1</v>
       </c>
       <c r="M43" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="T43" t="b">
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="44" spans="1:23">
       <c r="A44" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B44" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C44" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D44" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="E44">
         <v>2008</v>
       </c>
       <c r="G44" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="H44" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="I44" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="J44" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="K44">
         <v>0.840142</v>
@@ -7623,42 +7676,42 @@
         <v>1</v>
       </c>
       <c r="M44" t="s">
+        <v>387</v>
+      </c>
+      <c r="T44" t="b">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
         <v>385</v>
-      </c>
-      <c r="T44" t="b">
-        <v>0</v>
-      </c>
-      <c r="W44" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="45" spans="1:23">
       <c r="A45" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B45" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C45" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D45" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="E45">
         <v>2007</v>
       </c>
       <c r="G45" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="H45" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="I45" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="J45" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="K45">
         <v>0.882646</v>
@@ -7667,42 +7720,42 @@
         <v>1</v>
       </c>
       <c r="M45" t="s">
+        <v>395</v>
+      </c>
+      <c r="T45" t="b">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
         <v>393</v>
-      </c>
-      <c r="T45" t="b">
-        <v>0</v>
-      </c>
-      <c r="W45" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="46" spans="1:23">
       <c r="A46" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B46" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C46" t="s">
         <v>44</v>
       </c>
       <c r="D46" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="E46">
         <v>2007</v>
       </c>
       <c r="G46" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="H46" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="I46" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="J46" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="K46">
         <v>0.59916115</v>
@@ -7711,42 +7764,42 @@
         <v>1</v>
       </c>
       <c r="M46" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="T46" t="b">
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="47" spans="1:23">
       <c r="A47" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B47" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C47" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D47" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E47">
         <v>2007</v>
       </c>
       <c r="G47" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="H47" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="I47" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="J47" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="K47">
         <v>0.5236187</v>
@@ -7755,42 +7808,42 @@
         <v>1</v>
       </c>
       <c r="M47" t="s">
+        <v>410</v>
+      </c>
+      <c r="T47" t="b">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
         <v>408</v>
-      </c>
-      <c r="T47" t="b">
-        <v>0</v>
-      </c>
-      <c r="W47" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="48" spans="1:23">
       <c r="A48" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B48" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C48" t="s">
         <v>44</v>
       </c>
       <c r="D48" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="E48">
         <v>2006</v>
       </c>
       <c r="G48" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="H48" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="I48" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="J48" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="K48">
         <v>0.624983</v>
@@ -7799,42 +7852,42 @@
         <v>1</v>
       </c>
       <c r="M48" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="T48" t="b">
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="49" spans="1:23">
       <c r="A49" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B49" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C49" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="D49" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="E49">
         <v>2005</v>
       </c>
       <c r="G49" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="H49" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="I49" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="J49" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="K49">
         <v>0.48931456</v>
@@ -7843,45 +7896,45 @@
         <v>1</v>
       </c>
       <c r="M49" t="s">
+        <v>426</v>
+      </c>
+      <c r="T49" t="b">
+        <v>0</v>
+      </c>
+      <c r="V49" t="s">
+        <v>428</v>
+      </c>
+      <c r="W49" t="s">
         <v>424</v>
-      </c>
-      <c r="T49" t="b">
-        <v>0</v>
-      </c>
-      <c r="V49" t="s">
-        <v>426</v>
-      </c>
-      <c r="W49" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="50" spans="1:23">
       <c r="A50" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B50" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C50" t="s">
         <v>122</v>
       </c>
       <c r="D50" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="E50">
         <v>2005</v>
       </c>
       <c r="G50" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="H50" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="I50" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="J50" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="K50">
         <v>0.51288384</v>
@@ -7890,45 +7943,45 @@
         <v>1</v>
       </c>
       <c r="M50" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="T50" t="b">
         <v>0</v>
       </c>
       <c r="V50" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="W50" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="51" spans="1:23">
       <c r="A51" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B51" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C51" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="D51" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="E51">
         <v>2005</v>
       </c>
       <c r="G51" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="H51" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="I51" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="J51" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="K51">
         <v>0.8829239</v>
@@ -7937,45 +7990,45 @@
         <v>1</v>
       </c>
       <c r="M51" t="s">
+        <v>443</v>
+      </c>
+      <c r="T51" t="b">
+        <v>0</v>
+      </c>
+      <c r="V51" t="s">
+        <v>428</v>
+      </c>
+      <c r="W51" t="s">
         <v>441</v>
-      </c>
-      <c r="T51" t="b">
-        <v>0</v>
-      </c>
-      <c r="V51" t="s">
-        <v>426</v>
-      </c>
-      <c r="W51" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="52" spans="1:23">
       <c r="A52" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B52" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C52" t="s">
         <v>44</v>
       </c>
       <c r="D52" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="E52">
         <v>2005</v>
       </c>
       <c r="G52" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="H52" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="I52" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="J52" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="K52">
         <v>0.76492184</v>
@@ -7984,45 +8037,45 @@
         <v>1</v>
       </c>
       <c r="M52" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="T52" t="b">
         <v>0</v>
       </c>
       <c r="V52" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="W52" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="53" spans="1:23">
       <c r="A53" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B53" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C53" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="D53" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="E53">
         <v>2004</v>
       </c>
       <c r="G53" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="H53" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="I53" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="J53" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="K53">
         <v>0.5652143</v>
@@ -8031,45 +8084,45 @@
         <v>1</v>
       </c>
       <c r="M53" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="T53" t="b">
         <v>0</v>
       </c>
       <c r="V53" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="W53" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="54" spans="1:23">
       <c r="A54" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B54" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C54" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="D54" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="E54">
         <v>2004</v>
       </c>
       <c r="G54" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="H54" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="I54" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="J54" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="K54">
         <v>0.496683</v>
@@ -8078,45 +8131,45 @@
         <v>1</v>
       </c>
       <c r="M54" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="T54" t="b">
         <v>0</v>
       </c>
       <c r="V54" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="W54" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="55" spans="1:23">
       <c r="A55" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B55" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="C55" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="D55" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="E55">
         <v>2003</v>
       </c>
       <c r="G55" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="H55" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="I55" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="J55" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="K55">
         <v>0.5752159</v>
@@ -8125,45 +8178,45 @@
         <v>1</v>
       </c>
       <c r="M55" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="T55" t="b">
         <v>0</v>
       </c>
       <c r="V55" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="W55" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="56" spans="1:23">
       <c r="A56" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B56" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C56" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="D56" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="E56">
         <v>2003</v>
       </c>
       <c r="G56" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="H56" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="I56" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="J56" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="K56">
         <v>0.5842812</v>
@@ -8172,45 +8225,45 @@
         <v>1</v>
       </c>
       <c r="M56" t="s">
+        <v>486</v>
+      </c>
+      <c r="T56" t="b">
+        <v>0</v>
+      </c>
+      <c r="V56" t="s">
+        <v>428</v>
+      </c>
+      <c r="W56" t="s">
         <v>484</v>
-      </c>
-      <c r="T56" t="b">
-        <v>0</v>
-      </c>
-      <c r="V56" t="s">
-        <v>426</v>
-      </c>
-      <c r="W56" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="57" spans="1:23">
       <c r="A57" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B57" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C57" t="s">
         <v>122</v>
       </c>
       <c r="D57" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="E57">
         <v>2003</v>
       </c>
       <c r="G57" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="H57" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="I57" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="J57" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="K57">
         <v>0.7660705</v>
@@ -8219,45 +8272,45 @@
         <v>1</v>
       </c>
       <c r="M57" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="T57" t="b">
         <v>0</v>
       </c>
       <c r="V57" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="W57" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="58" spans="1:23">
       <c r="A58" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B58" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C58" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="D58" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="E58">
         <v>2003</v>
       </c>
       <c r="G58" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="H58" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="I58" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="J58" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="K58">
         <v>0.7656919</v>
@@ -8266,45 +8319,45 @@
         <v>1</v>
       </c>
       <c r="M58" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="T58" t="b">
         <v>0</v>
       </c>
       <c r="V58" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="W58" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
     </row>
     <row r="59" spans="1:23">
       <c r="A59" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B59" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C59" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="D59" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="E59">
         <v>2003</v>
       </c>
       <c r="G59" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="H59" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="I59" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="J59" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="K59">
         <v>0.8205238</v>
@@ -8313,45 +8366,45 @@
         <v>1</v>
       </c>
       <c r="M59" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="T59" t="b">
         <v>0</v>
       </c>
       <c r="V59" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="W59" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="60" spans="1:23">
       <c r="A60" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B60" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="C60" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="D60" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="E60">
         <v>2002</v>
       </c>
       <c r="G60" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="H60" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="I60" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="J60" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="K60">
         <v>0.8407247</v>
@@ -8360,45 +8413,45 @@
         <v>1</v>
       </c>
       <c r="M60" t="s">
+        <v>518</v>
+      </c>
+      <c r="T60" t="b">
+        <v>0</v>
+      </c>
+      <c r="V60" t="s">
+        <v>428</v>
+      </c>
+      <c r="W60" t="s">
         <v>516</v>
-      </c>
-      <c r="T60" t="b">
-        <v>0</v>
-      </c>
-      <c r="V60" t="s">
-        <v>426</v>
-      </c>
-      <c r="W60" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="61" spans="1:23">
       <c r="A61" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B61" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="C61" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="D61" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="E61">
         <v>2002</v>
       </c>
       <c r="G61" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="H61" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="I61" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="J61" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="K61">
         <v>0.77269876</v>
@@ -8407,45 +8460,45 @@
         <v>1</v>
       </c>
       <c r="M61" t="s">
+        <v>526</v>
+      </c>
+      <c r="T61" t="b">
+        <v>0</v>
+      </c>
+      <c r="V61" t="s">
+        <v>428</v>
+      </c>
+      <c r="W61" t="s">
         <v>524</v>
-      </c>
-      <c r="T61" t="b">
-        <v>0</v>
-      </c>
-      <c r="V61" t="s">
-        <v>426</v>
-      </c>
-      <c r="W61" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="62" spans="1:23">
       <c r="A62" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="B62" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="C62" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="D62" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="E62">
         <v>2002</v>
       </c>
       <c r="G62" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="H62" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="I62" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="J62" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="K62">
         <v>0.7300355</v>
@@ -8454,45 +8507,45 @@
         <v>1</v>
       </c>
       <c r="M62" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="T62" t="b">
         <v>0</v>
       </c>
       <c r="V62" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="W62" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
     </row>
     <row r="63" spans="1:23">
       <c r="A63" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="B63" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="C63" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D63" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="E63">
         <v>2002</v>
       </c>
       <c r="G63" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="H63" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="I63" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="J63" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="K63">
         <v>0.5697479</v>
@@ -8501,45 +8554,45 @@
         <v>1</v>
       </c>
       <c r="M63" t="s">
+        <v>542</v>
+      </c>
+      <c r="T63" t="b">
+        <v>0</v>
+      </c>
+      <c r="V63" t="s">
+        <v>428</v>
+      </c>
+      <c r="W63" t="s">
         <v>540</v>
-      </c>
-      <c r="T63" t="b">
-        <v>0</v>
-      </c>
-      <c r="V63" t="s">
-        <v>426</v>
-      </c>
-      <c r="W63" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="64" spans="1:23">
       <c r="A64" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="B64" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="C64" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D64" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="E64">
         <v>2002</v>
       </c>
       <c r="G64" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="H64" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="I64" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="J64" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="K64">
         <v>0.8145106</v>
@@ -8548,45 +8601,45 @@
         <v>1</v>
       </c>
       <c r="M64" t="s">
+        <v>549</v>
+      </c>
+      <c r="T64" t="b">
+        <v>0</v>
+      </c>
+      <c r="V64" t="s">
+        <v>428</v>
+      </c>
+      <c r="W64" t="s">
         <v>547</v>
-      </c>
-      <c r="T64" t="b">
-        <v>0</v>
-      </c>
-      <c r="V64" t="s">
-        <v>426</v>
-      </c>
-      <c r="W64" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="65" spans="1:23">
       <c r="A65" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B65" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="C65" t="s">
         <v>44</v>
       </c>
       <c r="D65" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="E65">
         <v>2002</v>
       </c>
       <c r="G65" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="H65" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="I65" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="J65" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="K65">
         <v>0.6944605</v>
@@ -8595,45 +8648,45 @@
         <v>1</v>
       </c>
       <c r="M65" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="T65" t="b">
         <v>0</v>
       </c>
       <c r="V65" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="W65" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
     </row>
     <row r="66" spans="1:23">
       <c r="A66" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B66" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="C66" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="D66" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="E66">
         <v>2002</v>
       </c>
       <c r="G66" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="H66" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="I66" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="J66" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="K66">
         <v>0.8263216</v>
@@ -8642,45 +8695,45 @@
         <v>1</v>
       </c>
       <c r="M66" t="s">
+        <v>564</v>
+      </c>
+      <c r="T66" t="b">
+        <v>0</v>
+      </c>
+      <c r="V66" t="s">
+        <v>428</v>
+      </c>
+      <c r="W66" t="s">
         <v>562</v>
-      </c>
-      <c r="T66" t="b">
-        <v>0</v>
-      </c>
-      <c r="V66" t="s">
-        <v>426</v>
-      </c>
-      <c r="W66" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="67" spans="1:23">
       <c r="A67" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="B67" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="C67" t="s">
         <v>122</v>
       </c>
       <c r="D67" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="E67">
         <v>2002</v>
       </c>
       <c r="G67" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="H67" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="I67" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="J67" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="K67">
         <v>0.82525444</v>
@@ -8689,45 +8742,45 @@
         <v>1</v>
       </c>
       <c r="M67" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="T67" t="b">
         <v>0</v>
       </c>
       <c r="V67" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="W67" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="68" spans="1:23">
       <c r="A68" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="B68" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="C68" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="D68" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="E68">
         <v>2002</v>
       </c>
       <c r="G68" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="H68" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="I68" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="J68" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="K68">
         <v>0.7488907</v>
@@ -8736,45 +8789,45 @@
         <v>1</v>
       </c>
       <c r="M68" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="T68" t="b">
         <v>0</v>
       </c>
       <c r="V68" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="W68" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="69" spans="1:23">
       <c r="A69" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="B69" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="C69" t="s">
         <v>122</v>
       </c>
       <c r="D69" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="E69">
         <v>2001</v>
       </c>
       <c r="G69" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="H69" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="I69" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="J69" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="K69">
         <v>0.54698193</v>
@@ -8783,45 +8836,45 @@
         <v>1</v>
       </c>
       <c r="M69" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="T69" t="b">
         <v>0</v>
       </c>
       <c r="V69" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="W69" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="70" spans="1:23">
       <c r="A70" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="B70" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="C70" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="D70" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="E70">
         <v>2001</v>
       </c>
       <c r="G70" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="H70" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="I70" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J70" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="K70">
         <v>0.8487087</v>
@@ -8830,45 +8883,45 @@
         <v>1</v>
       </c>
       <c r="M70" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="T70" t="b">
         <v>0</v>
       </c>
       <c r="V70" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="W70" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="71" spans="1:23">
       <c r="A71" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="B71" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="C71" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="D71" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="E71">
         <v>2001</v>
       </c>
       <c r="G71" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="H71" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="I71" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="J71" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="K71">
         <v>0.69911593</v>
@@ -8877,45 +8930,45 @@
         <v>1</v>
       </c>
       <c r="M71" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="T71" t="b">
         <v>0</v>
       </c>
       <c r="V71" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="W71" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="72" spans="1:23">
       <c r="A72" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="B72" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="C72" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="D72" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="E72">
         <v>2000</v>
       </c>
       <c r="G72" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="H72" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="I72" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="J72" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="K72">
         <v>0.56961936</v>
@@ -8924,45 +8977,45 @@
         <v>1</v>
       </c>
       <c r="M72" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="T72" t="b">
         <v>0</v>
       </c>
       <c r="V72" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="W72" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="73" spans="1:23">
       <c r="A73" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="B73" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="C73" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="D73" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="E73">
         <v>2000</v>
       </c>
       <c r="G73" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="H73" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="I73" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="J73" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="K73">
         <v>0.8763786</v>
@@ -8971,45 +9024,45 @@
         <v>1</v>
       </c>
       <c r="M73" t="s">
+        <v>622</v>
+      </c>
+      <c r="T73" t="b">
+        <v>0</v>
+      </c>
+      <c r="V73" t="s">
+        <v>428</v>
+      </c>
+      <c r="W73" t="s">
         <v>620</v>
-      </c>
-      <c r="T73" t="b">
-        <v>0</v>
-      </c>
-      <c r="V73" t="s">
-        <v>426</v>
-      </c>
-      <c r="W73" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="74" spans="1:23">
       <c r="A74" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="B74" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="C74" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="D74" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="E74">
         <v>2000</v>
       </c>
       <c r="G74" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="H74" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="I74" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="J74" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="K74">
         <v>0.6584225</v>
@@ -9018,45 +9071,45 @@
         <v>1</v>
       </c>
       <c r="M74" t="s">
+        <v>630</v>
+      </c>
+      <c r="T74" t="b">
+        <v>0</v>
+      </c>
+      <c r="V74" t="s">
+        <v>428</v>
+      </c>
+      <c r="W74" t="s">
         <v>628</v>
-      </c>
-      <c r="T74" t="b">
-        <v>0</v>
-      </c>
-      <c r="V74" t="s">
-        <v>426</v>
-      </c>
-      <c r="W74" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="75" spans="1:23">
       <c r="A75" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="B75" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="C75" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="D75" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="E75">
         <v>1999</v>
       </c>
       <c r="G75" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="H75" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="I75" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="J75" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="K75">
         <v>0.49180877</v>
@@ -9065,45 +9118,45 @@
         <v>1</v>
       </c>
       <c r="M75" t="s">
+        <v>638</v>
+      </c>
+      <c r="T75" t="b">
+        <v>0</v>
+      </c>
+      <c r="V75" t="s">
+        <v>428</v>
+      </c>
+      <c r="W75" t="s">
         <v>636</v>
-      </c>
-      <c r="T75" t="b">
-        <v>0</v>
-      </c>
-      <c r="V75" t="s">
-        <v>426</v>
-      </c>
-      <c r="W75" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="76" spans="1:23">
       <c r="A76" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="B76" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="C76" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="D76" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="E76">
         <v>1999</v>
       </c>
       <c r="G76" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="H76" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="I76" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="J76" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="K76">
         <v>0.70243895</v>
@@ -9112,45 +9165,45 @@
         <v>1</v>
       </c>
       <c r="M76" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="T76" t="b">
         <v>0</v>
       </c>
       <c r="V76" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="W76" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
     </row>
     <row r="77" spans="1:23">
       <c r="A77" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="B77" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="C77" t="s">
         <v>44</v>
       </c>
       <c r="D77" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="E77">
         <v>1998</v>
       </c>
       <c r="G77" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="H77" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="I77" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="J77" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="K77">
         <v>0.7810007</v>
@@ -9159,45 +9212,45 @@
         <v>1</v>
       </c>
       <c r="M77" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="T77" t="b">
         <v>0</v>
       </c>
       <c r="V77" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="W77" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
     </row>
     <row r="78" spans="1:23">
       <c r="A78" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="B78" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="C78" t="s">
         <v>122</v>
       </c>
       <c r="D78" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="E78">
         <v>1997</v>
       </c>
       <c r="G78" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="H78" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="I78" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="J78" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="K78">
         <v>0.64151096</v>
@@ -9206,45 +9259,45 @@
         <v>1</v>
       </c>
       <c r="M78" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="T78" t="b">
         <v>0</v>
       </c>
       <c r="V78" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="W78" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
     </row>
     <row r="79" spans="1:23">
       <c r="A79" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="B79" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="C79" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="D79" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E79">
         <v>1997</v>
       </c>
       <c r="G79" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="H79" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="I79" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="J79" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="K79">
         <v>0.5089265</v>
@@ -9253,45 +9306,45 @@
         <v>1</v>
       </c>
       <c r="M79" t="s">
+        <v>670</v>
+      </c>
+      <c r="T79" t="b">
+        <v>0</v>
+      </c>
+      <c r="V79" t="s">
+        <v>428</v>
+      </c>
+      <c r="W79" t="s">
         <v>668</v>
-      </c>
-      <c r="T79" t="b">
-        <v>0</v>
-      </c>
-      <c r="V79" t="s">
-        <v>426</v>
-      </c>
-      <c r="W79" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="80" spans="1:23">
       <c r="A80" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="B80" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="C80" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="D80" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="E80">
         <v>1997</v>
       </c>
       <c r="G80" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="H80" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="I80" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="J80" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="K80">
         <v>0.4748133</v>
@@ -9300,45 +9353,45 @@
         <v>1</v>
       </c>
       <c r="M80" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="T80" t="b">
         <v>0</v>
       </c>
       <c r="V80" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="W80" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="81" spans="1:23">
       <c r="A81" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="B81" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C81" t="s">
         <v>44</v>
       </c>
       <c r="D81" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="E81">
         <v>1996</v>
       </c>
       <c r="G81" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="H81" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="I81" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="J81" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="K81">
         <v>0.6166772</v>
@@ -9347,45 +9400,45 @@
         <v>1</v>
       </c>
       <c r="M81" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="T81" t="b">
         <v>0</v>
       </c>
       <c r="V81" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="W81" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="82" spans="1:23">
       <c r="A82" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="B82" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="C82" t="s">
         <v>44</v>
       </c>
       <c r="D82" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="E82">
         <v>1995</v>
       </c>
       <c r="G82" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="H82" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="I82" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="J82" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="K82">
         <v>0.6309468</v>
@@ -9394,45 +9447,45 @@
         <v>1</v>
       </c>
       <c r="M82" t="s">
+        <v>694</v>
+      </c>
+      <c r="T82" t="b">
+        <v>0</v>
+      </c>
+      <c r="V82" t="s">
+        <v>428</v>
+      </c>
+      <c r="W82" t="s">
         <v>692</v>
-      </c>
-      <c r="T82" t="b">
-        <v>0</v>
-      </c>
-      <c r="V82" t="s">
-        <v>426</v>
-      </c>
-      <c r="W82" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="83" spans="1:23">
       <c r="A83" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="B83" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="C83" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="D83" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="E83">
         <v>1994</v>
       </c>
       <c r="G83" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="H83" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="I83" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="J83" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="K83">
         <v>0.66811156</v>
@@ -9441,45 +9494,45 @@
         <v>1</v>
       </c>
       <c r="M83" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="T83" t="b">
         <v>0</v>
       </c>
       <c r="V83" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="W83" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
     </row>
     <row r="84" spans="1:23">
       <c r="A84" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="B84" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="C84" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="D84" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="E84">
         <v>1994</v>
       </c>
       <c r="G84" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="H84" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="I84" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="J84" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="K84">
         <v>0.5052441</v>
@@ -9488,45 +9541,45 @@
         <v>1</v>
       </c>
       <c r="M84" t="s">
+        <v>711</v>
+      </c>
+      <c r="T84" t="b">
+        <v>0</v>
+      </c>
+      <c r="V84" t="s">
+        <v>428</v>
+      </c>
+      <c r="W84" t="s">
         <v>709</v>
-      </c>
-      <c r="T84" t="b">
-        <v>0</v>
-      </c>
-      <c r="V84" t="s">
-        <v>426</v>
-      </c>
-      <c r="W84" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="85" spans="1:23">
       <c r="A85" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="B85" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="C85" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="D85" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="E85">
         <v>1992</v>
       </c>
       <c r="G85" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="H85" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="I85" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="J85" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="K85">
         <v>0.82742316</v>
@@ -9535,45 +9588,45 @@
         <v>1</v>
       </c>
       <c r="M85" t="s">
+        <v>719</v>
+      </c>
+      <c r="T85" t="b">
+        <v>0</v>
+      </c>
+      <c r="V85" t="s">
+        <v>428</v>
+      </c>
+      <c r="W85" t="s">
         <v>717</v>
-      </c>
-      <c r="T85" t="b">
-        <v>0</v>
-      </c>
-      <c r="V85" t="s">
-        <v>426</v>
-      </c>
-      <c r="W85" t="s">
-        <v>715</v>
       </c>
     </row>
     <row r="86" spans="1:23">
       <c r="A86" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="B86" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="C86" t="s">
         <v>122</v>
       </c>
       <c r="D86" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="E86">
         <v>1991</v>
       </c>
       <c r="G86" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="H86" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="I86" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="J86" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="K86">
         <v>0.5260684</v>
@@ -9582,45 +9635,45 @@
         <v>1</v>
       </c>
       <c r="M86" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="T86" t="b">
         <v>0</v>
       </c>
       <c r="V86" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="W86" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
     </row>
     <row r="87" spans="1:23">
       <c r="A87" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="B87" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="C87" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D87" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="E87">
         <v>1991</v>
       </c>
       <c r="G87" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="H87" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="I87" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="J87" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="K87">
         <v>0.8755828</v>
@@ -9629,45 +9682,45 @@
         <v>1</v>
       </c>
       <c r="M87" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="T87" t="b">
         <v>0</v>
       </c>
       <c r="V87" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="W87" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
     </row>
     <row r="88" spans="1:23">
       <c r="A88" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="B88" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="C88" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="D88" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="E88">
         <v>1991</v>
       </c>
       <c r="G88" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="H88" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="I88" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="J88" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="K88">
         <v>0.6845276</v>
@@ -9676,45 +9729,45 @@
         <v>1</v>
       </c>
       <c r="M88" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="T88" t="b">
         <v>0</v>
       </c>
       <c r="V88" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="W88" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
     </row>
     <row r="89" spans="1:23">
       <c r="A89" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="B89" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="C89" t="s">
         <v>44</v>
       </c>
       <c r="D89" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="E89">
         <v>1991</v>
       </c>
       <c r="G89" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="H89" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="I89" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="J89" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="K89">
         <v>0.7912472</v>
@@ -9723,45 +9776,45 @@
         <v>1</v>
       </c>
       <c r="M89" t="s">
+        <v>751</v>
+      </c>
+      <c r="T89" t="b">
+        <v>0</v>
+      </c>
+      <c r="V89" t="s">
+        <v>428</v>
+      </c>
+      <c r="W89" t="s">
         <v>749</v>
-      </c>
-      <c r="T89" t="b">
-        <v>0</v>
-      </c>
-      <c r="V89" t="s">
-        <v>426</v>
-      </c>
-      <c r="W89" t="s">
-        <v>747</v>
       </c>
     </row>
     <row r="90" spans="1:23">
       <c r="A90" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="B90" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="C90" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="D90" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="E90">
         <v>1991</v>
       </c>
       <c r="G90" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="H90" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="I90" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="J90" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="K90">
         <v>0.5826806</v>
@@ -9770,45 +9823,45 @@
         <v>1</v>
       </c>
       <c r="M90" t="s">
+        <v>759</v>
+      </c>
+      <c r="T90" t="b">
+        <v>0</v>
+      </c>
+      <c r="V90" t="s">
+        <v>428</v>
+      </c>
+      <c r="W90" t="s">
         <v>757</v>
-      </c>
-      <c r="T90" t="b">
-        <v>0</v>
-      </c>
-      <c r="V90" t="s">
-        <v>426</v>
-      </c>
-      <c r="W90" t="s">
-        <v>755</v>
       </c>
     </row>
     <row r="91" spans="1:23">
       <c r="A91" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="B91" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="C91" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="D91" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="E91">
         <v>1989</v>
       </c>
       <c r="G91" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="H91" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="I91" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="J91" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="K91">
         <v>0.57662725</v>
@@ -9817,45 +9870,45 @@
         <v>1</v>
       </c>
       <c r="M91" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="T91" t="b">
         <v>0</v>
       </c>
       <c r="V91" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="W91" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
     </row>
     <row r="92" spans="1:23">
       <c r="A92" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="B92" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="C92" t="s">
         <v>44</v>
       </c>
       <c r="D92" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="E92">
         <v>1989</v>
       </c>
       <c r="G92" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="H92" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="I92" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="J92" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="K92">
         <v>0.6682194</v>
@@ -9864,45 +9917,45 @@
         <v>1</v>
       </c>
       <c r="M92" t="s">
+        <v>774</v>
+      </c>
+      <c r="T92" t="b">
+        <v>0</v>
+      </c>
+      <c r="V92" t="s">
+        <v>428</v>
+      </c>
+      <c r="W92" t="s">
         <v>772</v>
-      </c>
-      <c r="T92" t="b">
-        <v>0</v>
-      </c>
-      <c r="V92" t="s">
-        <v>426</v>
-      </c>
-      <c r="W92" t="s">
-        <v>770</v>
       </c>
     </row>
     <row r="93" spans="1:23">
       <c r="A93" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="B93" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="C93" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="D93" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="E93">
         <v>1988</v>
       </c>
       <c r="G93" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="H93" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="I93" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="J93" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="K93">
         <v>0.5270276</v>
@@ -9911,45 +9964,45 @@
         <v>1</v>
       </c>
       <c r="M93" t="s">
+        <v>782</v>
+      </c>
+      <c r="T93" t="b">
+        <v>0</v>
+      </c>
+      <c r="V93" t="s">
+        <v>428</v>
+      </c>
+      <c r="W93" t="s">
         <v>780</v>
-      </c>
-      <c r="T93" t="b">
-        <v>0</v>
-      </c>
-      <c r="V93" t="s">
-        <v>426</v>
-      </c>
-      <c r="W93" t="s">
-        <v>778</v>
       </c>
     </row>
     <row r="94" spans="1:23">
       <c r="A94" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="B94" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="C94" t="s">
         <v>44</v>
       </c>
       <c r="D94" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="E94">
         <v>1987</v>
       </c>
       <c r="G94" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="H94" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="I94" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="J94" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="K94">
         <v>0.67877734</v>
@@ -9958,45 +10011,45 @@
         <v>1</v>
       </c>
       <c r="M94" t="s">
+        <v>789</v>
+      </c>
+      <c r="T94" t="b">
+        <v>0</v>
+      </c>
+      <c r="V94" t="s">
+        <v>428</v>
+      </c>
+      <c r="W94" t="s">
         <v>787</v>
-      </c>
-      <c r="T94" t="b">
-        <v>0</v>
-      </c>
-      <c r="V94" t="s">
-        <v>426</v>
-      </c>
-      <c r="W94" t="s">
-        <v>785</v>
       </c>
     </row>
     <row r="95" spans="1:23">
       <c r="A95" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="B95" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="C95" t="s">
         <v>122</v>
       </c>
       <c r="D95" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="E95">
         <v>1986</v>
       </c>
       <c r="G95" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="H95" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="I95" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="J95" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="K95">
         <v>0.7702717</v>
@@ -10005,45 +10058,45 @@
         <v>1</v>
       </c>
       <c r="M95" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="T95" t="b">
         <v>0</v>
       </c>
       <c r="V95" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="W95" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
     </row>
     <row r="96" spans="1:23">
       <c r="A96" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="B96" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="C96" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="D96" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="E96">
         <v>1984</v>
       </c>
       <c r="G96" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="H96" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="I96" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="J96" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="K96">
         <v>0.5954114</v>
@@ -10052,45 +10105,45 @@
         <v>1</v>
       </c>
       <c r="M96" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="T96" t="b">
         <v>0</v>
       </c>
       <c r="V96" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="W96" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
     </row>
     <row r="97" spans="1:23">
       <c r="A97" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="B97" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="C97" t="s">
         <v>44</v>
       </c>
       <c r="D97" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="E97">
         <v>1982</v>
       </c>
       <c r="G97" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="H97" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="I97" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="J97" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="K97">
         <v>0.55982393</v>
@@ -10099,45 +10152,45 @@
         <v>1</v>
       </c>
       <c r="M97" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="T97" t="b">
         <v>0</v>
       </c>
       <c r="V97" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="W97" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
     </row>
     <row r="98" spans="1:23">
       <c r="A98" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="B98" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="C98" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="D98" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="E98">
         <v>1982</v>
       </c>
       <c r="G98" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="H98" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="I98" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="J98" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="K98">
         <v>0.79666525</v>
@@ -10146,45 +10199,45 @@
         <v>1</v>
       </c>
       <c r="M98" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="T98" t="b">
         <v>0</v>
       </c>
       <c r="V98" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="W98" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
     </row>
     <row r="99" spans="1:23">
       <c r="A99" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="B99" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="C99" t="s">
         <v>44</v>
       </c>
       <c r="D99" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="E99">
         <v>1982</v>
       </c>
       <c r="G99" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="H99" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="I99" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="J99" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="K99">
         <v>0.67491555</v>
@@ -10193,45 +10246,45 @@
         <v>1</v>
       </c>
       <c r="M99" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="T99" t="b">
         <v>0</v>
       </c>
       <c r="V99" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="W99" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
     </row>
     <row r="100" spans="1:23">
       <c r="A100" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="B100" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="C100" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="D100" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="E100">
         <v>1982</v>
       </c>
       <c r="G100" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="H100" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="I100" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="J100" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="K100">
         <v>0.50991666</v>
@@ -10240,45 +10293,45 @@
         <v>1</v>
       </c>
       <c r="M100" t="s">
+        <v>837</v>
+      </c>
+      <c r="T100" t="b">
+        <v>0</v>
+      </c>
+      <c r="V100" t="s">
+        <v>428</v>
+      </c>
+      <c r="W100" t="s">
         <v>835</v>
-      </c>
-      <c r="T100" t="b">
-        <v>0</v>
-      </c>
-      <c r="V100" t="s">
-        <v>426</v>
-      </c>
-      <c r="W100" t="s">
-        <v>833</v>
       </c>
     </row>
     <row r="101" spans="1:23">
       <c r="A101" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="B101" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="C101" t="s">
         <v>44</v>
       </c>
       <c r="D101" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="E101">
         <v>1981</v>
       </c>
       <c r="G101" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="H101" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="I101" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="J101" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="K101">
         <v>0.69012314</v>
@@ -10287,45 +10340,45 @@
         <v>1</v>
       </c>
       <c r="M101" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="T101" t="b">
         <v>0</v>
       </c>
       <c r="V101" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="W101" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
     </row>
     <row r="102" spans="1:23">
       <c r="A102" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="B102" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="C102" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="D102" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="E102">
         <v>1981</v>
       </c>
       <c r="G102" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="H102" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="I102" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="J102" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="K102">
         <v>0.5959161</v>
@@ -10334,45 +10387,45 @@
         <v>1</v>
       </c>
       <c r="M102" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="T102" t="b">
         <v>0</v>
       </c>
       <c r="V102" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="W102" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
     </row>
     <row r="103" spans="1:23">
       <c r="A103" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="B103" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="C103" t="s">
         <v>44</v>
       </c>
       <c r="D103" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="E103">
         <v>1981</v>
       </c>
       <c r="G103" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="H103" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="I103" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="J103" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="K103">
         <v>0.5079925</v>
@@ -10381,45 +10434,45 @@
         <v>1</v>
       </c>
       <c r="M103" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="T103" t="b">
         <v>0</v>
       </c>
       <c r="V103" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="W103" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
     </row>
     <row r="104" spans="1:23">
       <c r="A104" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="B104" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="C104" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="D104" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="E104">
         <v>1980</v>
       </c>
       <c r="G104" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="H104" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="I104" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="J104" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="K104">
         <v>0.50449485</v>
@@ -10428,45 +10481,45 @@
         <v>1</v>
       </c>
       <c r="M104" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="T104" t="b">
         <v>0</v>
       </c>
       <c r="V104" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="W104" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
     </row>
     <row r="105" spans="1:23">
       <c r="A105" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="B105" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="C105" t="s">
         <v>44</v>
       </c>
       <c r="D105" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="E105">
         <v>1979</v>
       </c>
       <c r="G105" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="H105" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="I105" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="J105" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="K105">
         <v>0.7504657</v>
@@ -10475,45 +10528,45 @@
         <v>1</v>
       </c>
       <c r="M105" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="T105" t="b">
         <v>0</v>
       </c>
       <c r="V105" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="W105" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
     </row>
     <row r="106" spans="1:23">
       <c r="A106" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="B106" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="C106" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D106" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="E106">
         <v>1979</v>
       </c>
       <c r="G106" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="H106" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="I106" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="J106" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="K106">
         <v>0.6060403</v>
@@ -10522,45 +10575,45 @@
         <v>1</v>
       </c>
       <c r="M106" t="s">
+        <v>884</v>
+      </c>
+      <c r="T106" t="b">
+        <v>0</v>
+      </c>
+      <c r="V106" t="s">
+        <v>428</v>
+      </c>
+      <c r="W106" t="s">
         <v>882</v>
-      </c>
-      <c r="T106" t="b">
-        <v>0</v>
-      </c>
-      <c r="V106" t="s">
-        <v>426</v>
-      </c>
-      <c r="W106" t="s">
-        <v>880</v>
       </c>
     </row>
     <row r="107" spans="1:23">
       <c r="A107" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="B107" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="C107" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="D107" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="E107">
         <v>1979</v>
       </c>
       <c r="G107" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="H107" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="I107" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="J107" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="K107">
         <v>0.5434512</v>
@@ -10569,45 +10622,45 @@
         <v>1</v>
       </c>
       <c r="M107" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="T107" t="b">
         <v>0</v>
       </c>
       <c r="V107" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="W107" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
     </row>
     <row r="108" spans="1:23">
       <c r="A108" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="B108" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="C108" t="s">
         <v>44</v>
       </c>
       <c r="D108" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="E108">
         <v>1978</v>
       </c>
       <c r="G108" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="H108" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="I108" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="J108" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="K108">
         <v>0.5445427</v>
@@ -10616,45 +10669,45 @@
         <v>1</v>
       </c>
       <c r="M108" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="T108" t="b">
         <v>0</v>
       </c>
       <c r="V108" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="W108" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
     </row>
     <row r="109" spans="1:23">
       <c r="A109" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="B109" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="C109" t="s">
         <v>44</v>
       </c>
       <c r="D109" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="E109">
         <v>1978</v>
       </c>
       <c r="G109" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="H109" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="I109" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="J109" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="K109">
         <v>0.4950527</v>
@@ -10663,45 +10716,45 @@
         <v>1</v>
       </c>
       <c r="M109" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="T109" t="b">
         <v>0</v>
       </c>
       <c r="V109" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="W109" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
     </row>
     <row r="110" spans="1:23">
       <c r="A110" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="B110" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="C110" t="s">
         <v>44</v>
       </c>
       <c r="D110" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="E110">
         <v>1976</v>
       </c>
       <c r="G110" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="H110" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="I110" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="J110" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="K110">
         <v>0.5974401</v>
@@ -10710,45 +10763,45 @@
         <v>1</v>
       </c>
       <c r="M110" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="T110" t="b">
         <v>0</v>
       </c>
       <c r="V110" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="W110" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
     </row>
     <row r="111" spans="1:23">
       <c r="A111" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="B111" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="C111" t="s">
         <v>44</v>
       </c>
       <c r="D111" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="E111">
         <v>1976</v>
       </c>
       <c r="G111" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="H111" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="I111" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="J111" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="K111">
         <v>0.66992384</v>
@@ -10757,48 +10810,48 @@
         <v>1</v>
       </c>
       <c r="M111" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="T111" t="b">
         <v>0</v>
       </c>
       <c r="V111" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="W111" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
     </row>
     <row r="112" spans="2:23">
       <c r="B112" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="C112" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="D112" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="E112">
         <v>1985</v>
       </c>
       <c r="G112" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="H112" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="J112" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="M112" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="N112">
         <v>95</v>
       </c>
       <c r="O112" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="P112">
         <v>1</v>
@@ -10810,39 +10863,39 @@
         <v>0</v>
       </c>
       <c r="W112" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
     </row>
     <row r="113" spans="2:23">
       <c r="B113" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="C113" t="s">
         <v>44</v>
       </c>
       <c r="D113" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="E113">
         <v>1977</v>
       </c>
       <c r="G113" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="H113" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="J113" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="M113" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="N113">
         <v>110</v>
       </c>
       <c r="O113" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="P113">
         <v>0</v>
@@ -10854,39 +10907,39 @@
         <v>0</v>
       </c>
       <c r="W113" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
     </row>
     <row r="114" spans="2:23">
       <c r="B114" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="C114" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="D114" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="E114">
         <v>1995</v>
       </c>
       <c r="G114" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="H114" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="J114" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="M114" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="N114">
         <v>82</v>
       </c>
       <c r="O114" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="P114">
         <v>0</v>
@@ -10898,39 +10951,39 @@
         <v>0</v>
       </c>
       <c r="W114" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
     </row>
     <row r="115" spans="2:23">
       <c r="B115" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="C115" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="D115" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="E115">
         <v>1978</v>
       </c>
       <c r="G115" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="H115" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="J115" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="M115" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="N115">
         <v>105</v>
       </c>
       <c r="O115" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="P115">
         <v>0</v>
@@ -10942,39 +10995,39 @@
         <v>0</v>
       </c>
       <c r="W115" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
     </row>
     <row r="116" spans="2:23">
       <c r="B116" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="C116" t="s">
         <v>44</v>
       </c>
       <c r="D116" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="E116">
         <v>2004</v>
       </c>
       <c r="G116" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="H116" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="J116" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="M116" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="N116">
         <v>60</v>
       </c>
       <c r="O116" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="P116">
         <v>0</v>
@@ -10986,39 +11039,39 @@
         <v>0</v>
       </c>
       <c r="W116" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
     </row>
     <row r="117" spans="2:23">
       <c r="B117" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="C117" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="D117" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="E117">
         <v>2023</v>
       </c>
       <c r="G117" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="H117" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="J117" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="M117" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="N117">
         <v>7</v>
       </c>
       <c r="O117" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="P117">
         <v>0</v>
@@ -11030,39 +11083,39 @@
         <v>0</v>
       </c>
       <c r="W117" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
     </row>
     <row r="118" spans="2:23">
       <c r="B118" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="C118" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="D118" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="E118">
         <v>1979</v>
       </c>
       <c r="G118" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="H118" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="J118" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="M118" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="N118">
         <v>104</v>
       </c>
       <c r="O118" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="P118">
         <v>0</v>
@@ -11074,39 +11127,39 @@
         <v>0</v>
       </c>
       <c r="W118" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
     </row>
     <row r="119" spans="2:23">
       <c r="B119" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="C119" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="D119" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="E119">
         <v>1989</v>
       </c>
       <c r="G119" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="H119" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="J119" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="M119" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="N119">
         <v>88</v>
       </c>
       <c r="O119" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="P119">
         <v>0</v>
@@ -11118,18 +11171,18 @@
         <v>0</v>
       </c>
       <c r="W119" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
     </row>
     <row r="120" spans="2:23">
       <c r="B120" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="C120" t="s">
         <v>148</v>
       </c>
       <c r="D120" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="E120">
         <v>2024</v>
@@ -11138,22 +11191,22 @@
         <v>45862</v>
       </c>
       <c r="G120" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="H120" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="J120" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="M120" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="N120">
         <v>3</v>
       </c>
       <c r="O120" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="P120">
         <v>0</v>
@@ -11165,39 +11218,39 @@
         <v>0</v>
       </c>
       <c r="W120" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
     </row>
     <row r="121" spans="2:23">
       <c r="B121" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="C121" t="s">
         <v>71</v>
       </c>
       <c r="D121" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="E121">
         <v>2016</v>
       </c>
       <c r="G121" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="H121" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="J121" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="M121" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="N121">
         <v>32</v>
       </c>
       <c r="O121" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="P121">
         <v>0</v>
@@ -11209,39 +11262,39 @@
         <v>0</v>
       </c>
       <c r="W121" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="122" spans="2:23">
       <c r="B122" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="C122" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="D122" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="E122">
         <v>2010</v>
       </c>
       <c r="G122" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="H122" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="J122" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="M122" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="N122">
         <v>49</v>
       </c>
       <c r="O122" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="P122">
         <v>0</v>
@@ -11253,39 +11306,39 @@
         <v>0</v>
       </c>
       <c r="W122" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="123" spans="2:23">
       <c r="B123" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="C123" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="D123" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="E123">
         <v>2008</v>
       </c>
       <c r="G123" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="H123" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="J123" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="M123" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="N123">
         <v>54</v>
       </c>
       <c r="O123" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="P123">
         <v>0</v>
@@ -11297,39 +11350,39 @@
         <v>0</v>
       </c>
       <c r="W123" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="124" spans="2:23">
       <c r="B124" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="C124" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="D124" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="E124">
         <v>2022</v>
       </c>
       <c r="G124" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="H124" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="J124" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="M124" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="N124">
         <v>12</v>
       </c>
       <c r="O124" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="P124">
         <v>0</v>
@@ -11341,39 +11394,39 @@
         <v>0</v>
       </c>
       <c r="W124" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="125" spans="2:23">
       <c r="B125" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="C125" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="D125" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="E125">
         <v>2004</v>
       </c>
       <c r="G125" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="H125" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="J125" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="M125" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="N125">
         <v>65</v>
       </c>
       <c r="O125" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="P125">
         <v>0</v>
@@ -11385,45 +11438,45 @@
         <v>0</v>
       </c>
       <c r="W125" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="126" spans="2:23">
       <c r="B126" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="C126" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D126" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="E126">
         <v>2020</v>
       </c>
       <c r="G126" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="H126" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="J126" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="M126" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="N126">
         <v>16</v>
       </c>
       <c r="O126" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="P126">
         <v>0</v>
       </c>
       <c r="Q126" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="R126">
         <v>1</v>
@@ -11432,39 +11485,39 @@
         <v>0</v>
       </c>
       <c r="W126" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="127" spans="2:23">
       <c r="B127" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="C127" t="s">
         <v>44</v>
       </c>
       <c r="D127" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="E127">
         <v>1985</v>
       </c>
       <c r="G127" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="H127" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="J127" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="M127" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="N127">
         <v>94</v>
       </c>
       <c r="O127" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="P127">
         <v>0</v>
@@ -11476,45 +11529,45 @@
         <v>0</v>
       </c>
       <c r="W127" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="128" spans="2:23">
       <c r="B128" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="C128" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D128" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="E128">
         <v>1987</v>
       </c>
       <c r="G128" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="H128" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="J128" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="M128" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="N128">
         <v>92</v>
       </c>
       <c r="O128" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="P128">
         <v>0</v>
       </c>
       <c r="Q128" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="R128">
         <v>1</v>
@@ -11523,39 +11576,39 @@
         <v>0</v>
       </c>
       <c r="W128" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="129" spans="2:23">
       <c r="B129" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="C129" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="D129" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="E129">
         <v>2004</v>
       </c>
       <c r="G129" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="H129" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="J129" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="M129" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="N129">
         <v>66</v>
       </c>
       <c r="O129" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="P129">
         <v>0</v>
@@ -11567,45 +11620,45 @@
         <v>0</v>
       </c>
       <c r="W129" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="130" spans="2:23">
       <c r="B130" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="C130" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="D130" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="E130">
         <v>2019</v>
       </c>
       <c r="G130" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="H130" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="J130" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="M130" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="N130">
         <v>23</v>
       </c>
       <c r="O130" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="P130">
         <v>0</v>
       </c>
       <c r="Q130" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="R130">
         <v>1</v>
@@ -11614,39 +11667,39 @@
         <v>0</v>
       </c>
       <c r="W130" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="131" spans="2:23">
       <c r="B131" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="C131" t="s">
         <v>44</v>
       </c>
       <c r="D131" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="E131">
         <v>2010</v>
       </c>
       <c r="G131" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="H131" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="J131" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="M131" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="N131">
         <v>726</v>
       </c>
       <c r="O131" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="P131">
         <v>1</v>
@@ -11658,18 +11711,18 @@
         <v>0</v>
       </c>
       <c r="W131" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="132" spans="2:23">
       <c r="B132" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="C132" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="D132" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="E132">
         <v>2022</v>
@@ -11678,22 +11731,22 @@
         <v>45679</v>
       </c>
       <c r="G132" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="H132" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="J132" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="M132" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="N132">
         <v>137</v>
       </c>
       <c r="O132" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="P132">
         <v>0</v>
@@ -11705,39 +11758,39 @@
         <v>0</v>
       </c>
       <c r="W132" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="133" spans="2:23">
       <c r="B133" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
       <c r="C133" t="s">
         <v>44</v>
       </c>
       <c r="D133" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="E133">
         <v>1979</v>
       </c>
       <c r="G133" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="H133" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
       <c r="J133" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="M133" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="N133">
         <v>1099</v>
       </c>
       <c r="O133" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="P133">
         <v>0</v>
@@ -11749,39 +11802,39 @@
         <v>0</v>
       </c>
       <c r="W133" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="134" spans="2:23">
       <c r="B134" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="C134" t="s">
         <v>122</v>
       </c>
       <c r="D134" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="E134">
         <v>2019</v>
       </c>
       <c r="G134" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="H134" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="J134" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="M134" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
       <c r="N134">
         <v>307</v>
       </c>
       <c r="O134" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="P134">
         <v>0</v>
@@ -11793,39 +11846,39 @@
         <v>0</v>
       </c>
       <c r="W134" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="135" spans="2:23">
       <c r="B135" t="s">
-        <v>1110</v>
+        <v>1112</v>
       </c>
       <c r="C135" t="s">
-        <v>1111</v>
+        <v>1113</v>
       </c>
       <c r="D135" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="E135">
         <v>2016</v>
       </c>
       <c r="G135" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="H135" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="J135" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="M135" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
       <c r="N135">
         <v>487</v>
       </c>
       <c r="O135" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="P135">
         <v>0</v>
@@ -11837,39 +11890,39 @@
         <v>0</v>
       </c>
       <c r="W135" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="136" spans="2:23">
       <c r="B136" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="C136" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="D136" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="E136">
         <v>1984</v>
       </c>
       <c r="G136" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
       <c r="H136" t="s">
-        <v>1121</v>
+        <v>1123</v>
       </c>
       <c r="J136" t="s">
-        <v>1122</v>
+        <v>1124</v>
       </c>
       <c r="M136" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="N136">
         <v>1079</v>
       </c>
       <c r="O136" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="P136">
         <v>0</v>
@@ -11881,39 +11934,39 @@
         <v>0</v>
       </c>
       <c r="W136" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="137" spans="2:23">
       <c r="B137" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="C137" t="s">
         <v>44</v>
       </c>
       <c r="D137" t="s">
-        <v>1127</v>
+        <v>1129</v>
       </c>
       <c r="E137">
         <v>1996</v>
       </c>
       <c r="G137" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="H137" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
       <c r="J137" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="M137" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="N137">
         <v>1032</v>
       </c>
       <c r="O137" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
       <c r="P137">
         <v>0</v>
@@ -11925,39 +11978,39 @@
         <v>0</v>
       </c>
       <c r="W137" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="138" spans="2:23">
       <c r="B138" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
       <c r="C138" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="D138" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="E138">
         <v>1998</v>
       </c>
       <c r="G138" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="H138" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="J138" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="M138" t="s">
-        <v>1139</v>
+        <v>1141</v>
       </c>
       <c r="N138">
         <v>1003</v>
       </c>
       <c r="O138" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="P138">
         <v>0</v>
@@ -11969,39 +12022,39 @@
         <v>0</v>
       </c>
       <c r="W138" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="139" spans="2:23">
       <c r="B139" t="s">
-        <v>1142</v>
+        <v>1144</v>
       </c>
       <c r="C139" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D139" t="s">
-        <v>1143</v>
+        <v>1145</v>
       </c>
       <c r="E139">
         <v>1997</v>
       </c>
       <c r="G139" t="s">
-        <v>1144</v>
+        <v>1146</v>
       </c>
       <c r="H139" t="s">
-        <v>1145</v>
+        <v>1147</v>
       </c>
       <c r="J139" t="s">
-        <v>1146</v>
+        <v>1148</v>
       </c>
       <c r="M139" t="s">
-        <v>1147</v>
+        <v>1149</v>
       </c>
       <c r="N139">
         <v>1011</v>
       </c>
       <c r="O139" t="s">
-        <v>1148</v>
+        <v>1150</v>
       </c>
       <c r="P139">
         <v>0</v>
@@ -12013,39 +12066,39 @@
         <v>0</v>
       </c>
       <c r="W139" t="s">
-        <v>1144</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="140" spans="2:23">
       <c r="B140" t="s">
-        <v>1149</v>
+        <v>1151</v>
       </c>
       <c r="C140" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="D140" t="s">
-        <v>1151</v>
+        <v>1153</v>
       </c>
       <c r="E140">
         <v>2012</v>
       </c>
       <c r="G140" t="s">
-        <v>1152</v>
+        <v>1154</v>
       </c>
       <c r="H140" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="J140" t="s">
-        <v>1154</v>
+        <v>1156</v>
       </c>
       <c r="M140" t="s">
-        <v>1155</v>
+        <v>1157</v>
       </c>
       <c r="N140">
         <v>665</v>
       </c>
       <c r="O140" t="s">
-        <v>1156</v>
+        <v>1158</v>
       </c>
       <c r="P140">
         <v>0</v>
@@ -12057,39 +12110,39 @@
         <v>0</v>
       </c>
       <c r="W140" t="s">
-        <v>1152</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="141" spans="2:23">
       <c r="B141" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="C141" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="D141" t="s">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="E141">
         <v>2006</v>
       </c>
       <c r="G141" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
       <c r="H141" t="s">
-        <v>1160</v>
+        <v>1162</v>
       </c>
       <c r="J141" t="s">
-        <v>1161</v>
+        <v>1163</v>
       </c>
       <c r="M141" t="s">
-        <v>1162</v>
+        <v>1164</v>
       </c>
       <c r="N141">
         <v>850</v>
       </c>
       <c r="O141" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="P141">
         <v>0</v>
@@ -12101,39 +12154,39 @@
         <v>0</v>
       </c>
       <c r="W141" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="142" spans="2:23">
       <c r="B142" t="s">
-        <v>1164</v>
+        <v>1166</v>
       </c>
       <c r="C142" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="D142" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
       <c r="E142">
         <v>2018</v>
       </c>
       <c r="G142" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="H142" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="J142" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="M142" t="s">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="N142">
         <v>402</v>
       </c>
       <c r="O142" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="P142">
         <v>0</v>
@@ -12145,39 +12198,39 @@
         <v>0</v>
       </c>
       <c r="W142" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="143" spans="2:23">
       <c r="B143" t="s">
-        <v>1172</v>
+        <v>1174</v>
       </c>
       <c r="C143" t="s">
         <v>44</v>
       </c>
       <c r="D143" t="s">
-        <v>1173</v>
+        <v>1175</v>
       </c>
       <c r="E143">
         <v>1989</v>
       </c>
       <c r="G143" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
       <c r="H143" t="s">
-        <v>1175</v>
+        <v>1177</v>
       </c>
       <c r="J143" t="s">
-        <v>1176</v>
+        <v>1178</v>
       </c>
       <c r="M143" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
       <c r="N143">
         <v>1061</v>
       </c>
       <c r="O143" t="s">
-        <v>1178</v>
+        <v>1180</v>
       </c>
       <c r="P143">
         <v>0</v>
@@ -12189,39 +12242,39 @@
         <v>0</v>
       </c>
       <c r="W143" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="144" spans="2:23">
       <c r="B144" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="C144" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="D144" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
       <c r="E144">
         <v>2002</v>
       </c>
       <c r="G144" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
       <c r="H144" t="s">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="J144" t="s">
-        <v>1183</v>
+        <v>1185</v>
       </c>
       <c r="M144" t="s">
-        <v>1184</v>
+        <v>1186</v>
       </c>
       <c r="N144">
         <v>937</v>
       </c>
       <c r="O144" t="s">
-        <v>1185</v>
+        <v>1187</v>
       </c>
       <c r="P144">
         <v>0</v>
@@ -12233,39 +12286,39 @@
         <v>0</v>
       </c>
       <c r="W144" t="s">
-        <v>1186</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="145" spans="2:23">
       <c r="B145" t="s">
-        <v>1187</v>
+        <v>1189</v>
       </c>
       <c r="C145" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="D145" t="s">
-        <v>1188</v>
+        <v>1190</v>
       </c>
       <c r="E145">
         <v>1983</v>
       </c>
       <c r="G145" t="s">
-        <v>1189</v>
+        <v>1191</v>
       </c>
       <c r="H145" t="s">
-        <v>1190</v>
+        <v>1192</v>
       </c>
       <c r="J145" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
       <c r="M145" t="s">
-        <v>1192</v>
+        <v>1194</v>
       </c>
       <c r="N145">
         <v>1083</v>
       </c>
       <c r="O145" t="s">
-        <v>1193</v>
+        <v>1195</v>
       </c>
       <c r="P145">
         <v>0</v>
@@ -12277,39 +12330,39 @@
         <v>0</v>
       </c>
       <c r="W145" t="s">
-        <v>1189</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="146" spans="2:23">
       <c r="B146" t="s">
-        <v>1194</v>
+        <v>1196</v>
       </c>
       <c r="C146" t="s">
-        <v>1195</v>
+        <v>1197</v>
       </c>
       <c r="D146" t="s">
-        <v>1196</v>
+        <v>1198</v>
       </c>
       <c r="E146">
         <v>2018</v>
       </c>
       <c r="G146" t="s">
-        <v>1197</v>
+        <v>1199</v>
       </c>
       <c r="H146" t="s">
-        <v>1198</v>
+        <v>1200</v>
       </c>
       <c r="J146" t="s">
-        <v>1199</v>
+        <v>1201</v>
       </c>
       <c r="M146" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="N146">
         <v>371</v>
       </c>
       <c r="O146" t="s">
-        <v>1201</v>
+        <v>1203</v>
       </c>
       <c r="P146">
         <v>0</v>
@@ -12321,39 +12374,39 @@
         <v>0</v>
       </c>
       <c r="W146" t="s">
-        <v>1197</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="147" spans="2:23">
       <c r="B147" t="s">
-        <v>1202</v>
+        <v>1204</v>
       </c>
       <c r="C147" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="D147" t="s">
-        <v>1203</v>
+        <v>1205</v>
       </c>
       <c r="E147">
         <v>2009</v>
       </c>
       <c r="G147" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
       <c r="H147" t="s">
-        <v>1205</v>
+        <v>1207</v>
       </c>
       <c r="J147" t="s">
-        <v>1206</v>
+        <v>1208</v>
       </c>
       <c r="M147" t="s">
-        <v>1207</v>
+        <v>1209</v>
       </c>
       <c r="N147">
         <v>766</v>
       </c>
       <c r="O147" t="s">
-        <v>1208</v>
+        <v>1210</v>
       </c>
       <c r="P147">
         <v>0</v>
@@ -12365,39 +12418,39 @@
         <v>0</v>
       </c>
       <c r="W147" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="148" spans="2:23">
       <c r="B148" t="s">
-        <v>1209</v>
+        <v>1211</v>
       </c>
       <c r="C148" t="s">
         <v>44</v>
       </c>
       <c r="D148" t="s">
-        <v>1210</v>
+        <v>1212</v>
       </c>
       <c r="E148">
         <v>1990</v>
       </c>
       <c r="G148" t="s">
-        <v>1211</v>
+        <v>1213</v>
       </c>
       <c r="H148" t="s">
-        <v>1212</v>
+        <v>1214</v>
       </c>
       <c r="J148" t="s">
-        <v>1213</v>
+        <v>1215</v>
       </c>
       <c r="M148" t="s">
-        <v>1214</v>
+        <v>1216</v>
       </c>
       <c r="N148">
         <v>1056</v>
       </c>
       <c r="O148" t="s">
-        <v>1215</v>
+        <v>1217</v>
       </c>
       <c r="P148">
         <v>0</v>
@@ -12409,39 +12462,39 @@
         <v>0</v>
       </c>
       <c r="W148" t="s">
-        <v>1211</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="149" spans="2:23">
       <c r="B149" t="s">
-        <v>1216</v>
+        <v>1218</v>
       </c>
       <c r="C149" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="D149" t="s">
-        <v>1217</v>
+        <v>1219</v>
       </c>
       <c r="E149">
         <v>2008</v>
       </c>
       <c r="G149" t="s">
-        <v>1218</v>
+        <v>1220</v>
       </c>
       <c r="H149" t="s">
-        <v>1219</v>
+        <v>1221</v>
       </c>
       <c r="J149" t="s">
-        <v>1220</v>
+        <v>1222</v>
       </c>
       <c r="M149" t="s">
-        <v>1221</v>
+        <v>1223</v>
       </c>
       <c r="N149">
         <v>792</v>
       </c>
       <c r="O149" t="s">
-        <v>1222</v>
+        <v>1224</v>
       </c>
       <c r="P149">
         <v>0</v>
@@ -12453,39 +12506,39 @@
         <v>0</v>
       </c>
       <c r="W149" t="s">
-        <v>1218</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="150" spans="2:23">
       <c r="B150" t="s">
-        <v>1223</v>
+        <v>1225</v>
       </c>
       <c r="C150" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="D150" t="s">
-        <v>1224</v>
+        <v>1226</v>
       </c>
       <c r="E150">
         <v>2005</v>
       </c>
       <c r="G150" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
       <c r="H150" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
       <c r="J150" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
       <c r="M150" t="s">
-        <v>1228</v>
+        <v>1230</v>
       </c>
       <c r="N150">
         <v>876</v>
       </c>
       <c r="O150" t="s">
-        <v>1229</v>
+        <v>1231</v>
       </c>
       <c r="P150">
         <v>0</v>
@@ -12497,39 +12550,39 @@
         <v>0</v>
       </c>
       <c r="W150" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="151" spans="2:23">
       <c r="B151" t="s">
-        <v>1230</v>
+        <v>1232</v>
       </c>
       <c r="C151" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D151" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="E151">
         <v>2006</v>
       </c>
       <c r="G151" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="H151" t="s">
-        <v>1233</v>
+        <v>1235</v>
       </c>
       <c r="J151" t="s">
-        <v>1234</v>
+        <v>1236</v>
       </c>
       <c r="M151" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="N151">
         <v>851</v>
       </c>
       <c r="O151" t="s">
-        <v>1236</v>
+        <v>1238</v>
       </c>
       <c r="P151">
         <v>0</v>
@@ -12541,39 +12594,39 @@
         <v>0</v>
       </c>
       <c r="W151" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="152" spans="2:23">
       <c r="B152" t="s">
-        <v>1237</v>
+        <v>1239</v>
       </c>
       <c r="C152" t="s">
         <v>122</v>
       </c>
       <c r="D152" t="s">
-        <v>1238</v>
+        <v>1240</v>
       </c>
       <c r="E152">
         <v>2021</v>
       </c>
       <c r="G152" t="s">
-        <v>1239</v>
+        <v>1241</v>
       </c>
       <c r="H152" t="s">
-        <v>1240</v>
+        <v>1242</v>
       </c>
       <c r="J152" t="s">
-        <v>1241</v>
+        <v>1243</v>
       </c>
       <c r="M152" t="s">
-        <v>1242</v>
+        <v>1244</v>
       </c>
       <c r="N152">
         <v>205</v>
       </c>
       <c r="O152" t="s">
-        <v>1243</v>
+        <v>1245</v>
       </c>
       <c r="P152">
         <v>0</v>
@@ -12585,39 +12638,39 @@
         <v>0</v>
       </c>
       <c r="W152" t="s">
-        <v>1244</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="153" spans="2:23">
       <c r="B153" t="s">
-        <v>1245</v>
+        <v>1247</v>
       </c>
       <c r="C153" t="s">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="D153" t="s">
-        <v>1247</v>
+        <v>1249</v>
       </c>
       <c r="E153">
         <v>2018</v>
       </c>
       <c r="G153" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="H153" t="s">
-        <v>1249</v>
+        <v>1251</v>
       </c>
       <c r="J153" t="s">
-        <v>1250</v>
+        <v>1252</v>
       </c>
       <c r="M153" t="s">
-        <v>1251</v>
+        <v>1253</v>
       </c>
       <c r="N153">
         <v>401</v>
       </c>
       <c r="O153" t="s">
-        <v>1252</v>
+        <v>1254</v>
       </c>
       <c r="P153">
         <v>0</v>
@@ -12629,39 +12682,39 @@
         <v>0</v>
       </c>
       <c r="W153" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="154" spans="2:23">
       <c r="B154" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="C154" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="D154" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
       <c r="E154">
         <v>2010</v>
       </c>
       <c r="G154" t="s">
-        <v>1256</v>
+        <v>1258</v>
       </c>
       <c r="H154" t="s">
-        <v>1257</v>
+        <v>1259</v>
       </c>
       <c r="J154" t="s">
-        <v>1258</v>
+        <v>1260</v>
       </c>
       <c r="M154" t="s">
-        <v>1259</v>
+        <v>1261</v>
       </c>
       <c r="N154">
         <v>727</v>
       </c>
       <c r="O154" t="s">
-        <v>1260</v>
+        <v>1262</v>
       </c>
       <c r="P154">
         <v>0</v>
@@ -12673,39 +12726,39 @@
         <v>0</v>
       </c>
       <c r="W154" t="s">
-        <v>1256</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="155" spans="2:23">
       <c r="B155" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="C155" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
       <c r="D155" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
       <c r="E155">
         <v>1997</v>
       </c>
       <c r="G155" t="s">
-        <v>1264</v>
+        <v>1266</v>
       </c>
       <c r="H155" t="s">
-        <v>1265</v>
+        <v>1267</v>
       </c>
       <c r="J155" t="s">
-        <v>1266</v>
+        <v>1268</v>
       </c>
       <c r="M155" t="s">
-        <v>1267</v>
+        <v>1269</v>
       </c>
       <c r="N155">
         <v>1007</v>
       </c>
       <c r="O155" t="s">
-        <v>1268</v>
+        <v>1270</v>
       </c>
       <c r="P155">
         <v>0</v>
@@ -12717,39 +12770,39 @@
         <v>0</v>
       </c>
       <c r="W155" t="s">
-        <v>1269</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="156" spans="2:23">
       <c r="B156" t="s">
-        <v>1270</v>
+        <v>1272</v>
       </c>
       <c r="C156" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D156" t="s">
-        <v>1271</v>
+        <v>1273</v>
       </c>
       <c r="E156">
         <v>2010</v>
       </c>
       <c r="G156" t="s">
-        <v>1272</v>
+        <v>1274</v>
       </c>
       <c r="H156" t="s">
-        <v>1273</v>
+        <v>1275</v>
       </c>
       <c r="J156" t="s">
-        <v>1274</v>
+        <v>1276</v>
       </c>
       <c r="M156" t="s">
-        <v>1275</v>
+        <v>1277</v>
       </c>
       <c r="N156">
         <v>717</v>
       </c>
       <c r="O156" t="s">
-        <v>1276</v>
+        <v>1278</v>
       </c>
       <c r="P156">
         <v>0</v>
@@ -12761,39 +12814,39 @@
         <v>0</v>
       </c>
       <c r="W156" t="s">
-        <v>1272</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="157" spans="2:23">
       <c r="B157" t="s">
-        <v>1277</v>
+        <v>1279</v>
       </c>
       <c r="C157" t="s">
         <v>44</v>
       </c>
       <c r="D157" t="s">
-        <v>1278</v>
+        <v>1280</v>
       </c>
       <c r="E157">
         <v>1997</v>
       </c>
       <c r="G157" t="s">
-        <v>1279</v>
+        <v>1281</v>
       </c>
       <c r="H157" t="s">
-        <v>1280</v>
+        <v>1282</v>
       </c>
       <c r="J157" t="s">
-        <v>1281</v>
+        <v>1283</v>
       </c>
       <c r="M157" t="s">
-        <v>1282</v>
+        <v>1284</v>
       </c>
       <c r="N157">
         <v>1015</v>
       </c>
       <c r="O157" t="s">
-        <v>1283</v>
+        <v>1285</v>
       </c>
       <c r="P157">
         <v>0</v>
@@ -12805,39 +12858,39 @@
         <v>0</v>
       </c>
       <c r="W157" t="s">
-        <v>1279</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="158" spans="2:23">
       <c r="B158" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="C158" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="D158" t="s">
-        <v>1285</v>
+        <v>1287</v>
       </c>
       <c r="E158">
         <v>2010</v>
       </c>
       <c r="G158" t="s">
-        <v>1286</v>
+        <v>1288</v>
       </c>
       <c r="H158" t="s">
-        <v>1287</v>
+        <v>1289</v>
       </c>
       <c r="J158" t="s">
-        <v>1288</v>
+        <v>1290</v>
       </c>
       <c r="M158" t="s">
-        <v>1289</v>
+        <v>1291</v>
       </c>
       <c r="N158">
         <v>729</v>
       </c>
       <c r="O158" t="s">
-        <v>1290</v>
+        <v>1292</v>
       </c>
       <c r="P158">
         <v>0</v>
@@ -12849,39 +12902,39 @@
         <v>0</v>
       </c>
       <c r="W158" t="s">
-        <v>1286</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="159" spans="2:23">
       <c r="B159" t="s">
-        <v>1291</v>
+        <v>1293</v>
       </c>
       <c r="C159" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="D159" t="s">
-        <v>1292</v>
+        <v>1294</v>
       </c>
       <c r="E159">
         <v>2008</v>
       </c>
       <c r="G159" t="s">
-        <v>1293</v>
+        <v>1295</v>
       </c>
       <c r="H159" t="s">
-        <v>1294</v>
+        <v>1296</v>
       </c>
       <c r="J159" t="s">
-        <v>1295</v>
+        <v>1297</v>
       </c>
       <c r="M159" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="N159">
         <v>799</v>
       </c>
       <c r="O159" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
       <c r="P159">
         <v>0</v>
@@ -12893,39 +12946,39 @@
         <v>0</v>
       </c>
       <c r="W159" t="s">
-        <v>1293</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="160" spans="2:23">
       <c r="B160" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
       <c r="C160" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D160" t="s">
-        <v>1299</v>
+        <v>1301</v>
       </c>
       <c r="E160">
         <v>2004</v>
       </c>
       <c r="G160" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
       <c r="H160" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
       <c r="J160" t="s">
-        <v>1302</v>
+        <v>1304</v>
       </c>
       <c r="M160" t="s">
-        <v>1303</v>
+        <v>1305</v>
       </c>
       <c r="N160">
         <v>900</v>
       </c>
       <c r="O160" t="s">
-        <v>1304</v>
+        <v>1306</v>
       </c>
       <c r="P160">
         <v>0</v>
@@ -12937,39 +12990,39 @@
         <v>0</v>
       </c>
       <c r="W160" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="161" spans="2:23">
       <c r="B161" t="s">
-        <v>1305</v>
+        <v>1307</v>
       </c>
       <c r="C161" t="s">
-        <v>1306</v>
+        <v>1308</v>
       </c>
       <c r="D161" t="s">
-        <v>1307</v>
+        <v>1309</v>
       </c>
       <c r="E161">
         <v>2009</v>
       </c>
       <c r="G161" t="s">
-        <v>1308</v>
+        <v>1310</v>
       </c>
       <c r="H161" t="s">
-        <v>1309</v>
+        <v>1311</v>
       </c>
       <c r="J161" t="s">
-        <v>1310</v>
+        <v>1312</v>
       </c>
       <c r="M161" t="s">
-        <v>1311</v>
+        <v>1313</v>
       </c>
       <c r="N161">
         <v>764</v>
       </c>
       <c r="O161" t="s">
-        <v>1312</v>
+        <v>1314</v>
       </c>
       <c r="P161">
         <v>0</v>
@@ -12981,18 +13034,18 @@
         <v>0</v>
       </c>
       <c r="W161" t="s">
-        <v>1313</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="162" spans="2:23">
       <c r="B162" t="s">
-        <v>1314</v>
+        <v>1316</v>
       </c>
       <c r="C162" t="s">
-        <v>1315</v>
+        <v>1317</v>
       </c>
       <c r="D162" t="s">
-        <v>1316</v>
+        <v>1318</v>
       </c>
       <c r="E162">
         <v>2021</v>
@@ -13001,22 +13054,22 @@
         <v>45768</v>
       </c>
       <c r="G162" t="s">
-        <v>1317</v>
+        <v>1319</v>
       </c>
       <c r="H162" t="s">
-        <v>1318</v>
+        <v>1320</v>
       </c>
       <c r="J162" t="s">
-        <v>1319</v>
+        <v>1321</v>
       </c>
       <c r="M162" t="s">
-        <v>1320</v>
+        <v>1322</v>
       </c>
       <c r="N162">
         <v>234</v>
       </c>
       <c r="O162" t="s">
-        <v>1321</v>
+        <v>1323</v>
       </c>
       <c r="P162">
         <v>0</v>
@@ -13028,39 +13081,39 @@
         <v>0</v>
       </c>
       <c r="W162" t="s">
-        <v>1317</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="163" spans="2:23">
       <c r="B163" t="s">
-        <v>1322</v>
+        <v>1324</v>
       </c>
       <c r="C163" t="s">
-        <v>1323</v>
+        <v>1325</v>
       </c>
       <c r="D163" t="s">
-        <v>1324</v>
+        <v>1326</v>
       </c>
       <c r="E163">
         <v>2011</v>
       </c>
       <c r="G163" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="H163" t="s">
-        <v>1326</v>
+        <v>1328</v>
       </c>
       <c r="J163" t="s">
-        <v>1327</v>
+        <v>1329</v>
       </c>
       <c r="M163" t="s">
-        <v>1328</v>
+        <v>1330</v>
       </c>
       <c r="N163">
         <v>2179</v>
       </c>
       <c r="O163" t="s">
-        <v>1329</v>
+        <v>1331</v>
       </c>
       <c r="P163">
         <v>1</v>
@@ -13072,39 +13125,39 @@
         <v>0</v>
       </c>
       <c r="W163" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="164" spans="2:23">
       <c r="B164" t="s">
-        <v>1330</v>
+        <v>1332</v>
       </c>
       <c r="C164" t="s">
-        <v>1331</v>
+        <v>1333</v>
       </c>
       <c r="D164" t="s">
-        <v>1332</v>
+        <v>1334</v>
       </c>
       <c r="E164">
         <v>2009</v>
       </c>
       <c r="G164" t="s">
-        <v>1333</v>
+        <v>1335</v>
       </c>
       <c r="H164" t="s">
-        <v>1334</v>
+        <v>1336</v>
       </c>
       <c r="J164" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="M164" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="N164">
         <v>2444</v>
       </c>
       <c r="O164" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
       <c r="P164">
         <v>1</v>
@@ -13116,39 +13169,39 @@
         <v>0</v>
       </c>
       <c r="W164" t="s">
-        <v>1333</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="165" spans="2:23">
       <c r="B165" t="s">
-        <v>1338</v>
+        <v>1340</v>
       </c>
       <c r="C165" t="s">
-        <v>1339</v>
+        <v>1341</v>
       </c>
       <c r="D165" t="s">
-        <v>1340</v>
+        <v>1342</v>
       </c>
       <c r="E165">
         <v>2021</v>
       </c>
       <c r="G165" t="s">
-        <v>1341</v>
+        <v>1343</v>
       </c>
       <c r="H165" t="s">
-        <v>1342</v>
+        <v>1344</v>
       </c>
       <c r="J165" t="s">
-        <v>1343</v>
+        <v>1345</v>
       </c>
       <c r="M165" t="s">
-        <v>1344</v>
+        <v>1346</v>
       </c>
       <c r="N165">
         <v>649</v>
       </c>
       <c r="O165" t="s">
-        <v>1345</v>
+        <v>1347</v>
       </c>
       <c r="P165">
         <v>0</v>
@@ -13160,39 +13213,39 @@
         <v>0</v>
       </c>
       <c r="W165" t="s">
-        <v>1341</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="166" spans="2:23">
       <c r="B166" t="s">
-        <v>1346</v>
+        <v>1348</v>
       </c>
       <c r="C166" t="s">
         <v>35</v>
       </c>
       <c r="D166" t="s">
-        <v>1347</v>
+        <v>1349</v>
       </c>
       <c r="E166">
         <v>2014</v>
       </c>
       <c r="G166" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="H166" t="s">
-        <v>1349</v>
+        <v>1351</v>
       </c>
       <c r="J166" t="s">
-        <v>1350</v>
+        <v>1352</v>
       </c>
       <c r="M166" t="s">
-        <v>1351</v>
+        <v>1353</v>
       </c>
       <c r="N166">
         <v>1797</v>
       </c>
       <c r="O166" t="s">
-        <v>1352</v>
+        <v>1354</v>
       </c>
       <c r="P166">
         <v>0</v>
@@ -13204,39 +13257,39 @@
         <v>0</v>
       </c>
       <c r="W166" t="s">
-        <v>1353</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="167" spans="2:23">
       <c r="B167" t="s">
-        <v>1354</v>
+        <v>1356</v>
       </c>
       <c r="C167" t="s">
         <v>122</v>
       </c>
       <c r="D167" t="s">
-        <v>1355</v>
+        <v>1357</v>
       </c>
       <c r="E167">
         <v>2013</v>
       </c>
       <c r="G167" t="s">
-        <v>1356</v>
+        <v>1358</v>
       </c>
       <c r="H167" t="s">
-        <v>1357</v>
+        <v>1359</v>
       </c>
       <c r="J167" t="s">
-        <v>1358</v>
+        <v>1360</v>
       </c>
       <c r="M167" t="s">
-        <v>1359</v>
+        <v>1361</v>
       </c>
       <c r="N167">
         <v>1976</v>
       </c>
       <c r="O167" t="s">
-        <v>1360</v>
+        <v>1362</v>
       </c>
       <c r="P167">
         <v>0</v>
@@ -13248,39 +13301,39 @@
         <v>0</v>
       </c>
       <c r="W167" t="s">
-        <v>1361</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="168" spans="2:23">
       <c r="B168" t="s">
-        <v>1362</v>
+        <v>1364</v>
       </c>
       <c r="C168" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="D168" t="s">
-        <v>1363</v>
+        <v>1365</v>
       </c>
       <c r="E168">
         <v>2016</v>
       </c>
       <c r="G168" t="s">
-        <v>1364</v>
+        <v>1366</v>
       </c>
       <c r="H168" t="s">
-        <v>1365</v>
+        <v>1367</v>
       </c>
       <c r="J168" t="s">
-        <v>1366</v>
+        <v>1368</v>
       </c>
       <c r="M168" t="s">
-        <v>1367</v>
+        <v>1369</v>
       </c>
       <c r="N168">
         <v>1480</v>
       </c>
       <c r="O168" t="s">
-        <v>1368</v>
+        <v>1370</v>
       </c>
       <c r="P168">
         <v>0</v>
@@ -13292,39 +13345,39 @@
         <v>0</v>
       </c>
       <c r="W168" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="169" spans="2:23">
       <c r="B169" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="C169" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="D169" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
       <c r="E169">
         <v>2009</v>
       </c>
       <c r="G169" t="s">
-        <v>1373</v>
+        <v>1375</v>
       </c>
       <c r="H169" t="s">
-        <v>1374</v>
+        <v>1376</v>
       </c>
       <c r="J169" t="s">
-        <v>1375</v>
+        <v>1377</v>
       </c>
       <c r="M169" t="s">
-        <v>1376</v>
+        <v>1378</v>
       </c>
       <c r="N169">
         <v>2438</v>
       </c>
       <c r="O169" t="s">
-        <v>1377</v>
+        <v>1379</v>
       </c>
       <c r="P169">
         <v>0</v>
@@ -13336,39 +13389,39 @@
         <v>0</v>
       </c>
       <c r="W169" t="s">
-        <v>1373</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="170" spans="2:23">
       <c r="B170" t="s">
-        <v>1378</v>
+        <v>1380</v>
       </c>
       <c r="C170" t="s">
         <v>122</v>
       </c>
       <c r="D170" t="s">
-        <v>1379</v>
+        <v>1381</v>
       </c>
       <c r="E170">
         <v>2020</v>
       </c>
       <c r="G170" t="s">
-        <v>1380</v>
+        <v>1382</v>
       </c>
       <c r="H170" t="s">
-        <v>1381</v>
+        <v>1383</v>
       </c>
       <c r="J170" t="s">
-        <v>1382</v>
+        <v>1384</v>
       </c>
       <c r="M170" t="s">
-        <v>1383</v>
+        <v>1385</v>
       </c>
       <c r="N170">
         <v>886</v>
       </c>
       <c r="O170" t="s">
-        <v>1384</v>
+        <v>1386</v>
       </c>
       <c r="P170">
         <v>0</v>
@@ -13380,39 +13433,39 @@
         <v>0</v>
       </c>
       <c r="W170" t="s">
-        <v>1385</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="171" spans="2:23">
       <c r="B171" t="s">
-        <v>1386</v>
+        <v>1388</v>
       </c>
       <c r="C171" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="D171" t="s">
-        <v>1388</v>
+        <v>1390</v>
       </c>
       <c r="E171">
         <v>2013</v>
       </c>
       <c r="G171" t="s">
-        <v>1389</v>
+        <v>1391</v>
       </c>
       <c r="H171" t="s">
-        <v>1390</v>
+        <v>1392</v>
       </c>
       <c r="J171" t="s">
-        <v>1391</v>
+        <v>1393</v>
       </c>
       <c r="M171" t="s">
-        <v>1392</v>
+        <v>1394</v>
       </c>
       <c r="N171">
         <v>1931</v>
       </c>
       <c r="O171" t="s">
-        <v>1393</v>
+        <v>1395</v>
       </c>
       <c r="P171">
         <v>0</v>
@@ -13424,39 +13477,39 @@
         <v>0</v>
       </c>
       <c r="W171" t="s">
-        <v>1389</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="172" spans="2:23">
       <c r="B172" t="s">
-        <v>1394</v>
+        <v>1396</v>
       </c>
       <c r="C172" t="s">
-        <v>1395</v>
+        <v>1397</v>
       </c>
       <c r="D172" t="s">
-        <v>1396</v>
+        <v>1398</v>
       </c>
       <c r="E172">
         <v>2016</v>
       </c>
       <c r="G172" t="s">
-        <v>1397</v>
+        <v>1399</v>
       </c>
       <c r="H172" t="s">
-        <v>1398</v>
+        <v>1400</v>
       </c>
       <c r="J172" t="s">
-        <v>1399</v>
+        <v>1401</v>
       </c>
       <c r="M172" t="s">
-        <v>1400</v>
+        <v>1402</v>
       </c>
       <c r="N172">
         <v>1492</v>
       </c>
       <c r="O172" t="s">
-        <v>1401</v>
+        <v>1403</v>
       </c>
       <c r="P172">
         <v>0</v>
@@ -13468,39 +13521,39 @@
         <v>0</v>
       </c>
       <c r="W172" t="s">
-        <v>1397</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="173" spans="2:23">
       <c r="B173" t="s">
-        <v>1402</v>
+        <v>1404</v>
       </c>
       <c r="C173" t="s">
-        <v>1403</v>
+        <v>1405</v>
       </c>
       <c r="D173" t="s">
-        <v>1404</v>
+        <v>1406</v>
       </c>
       <c r="E173">
         <v>2018</v>
       </c>
       <c r="G173" t="s">
-        <v>1405</v>
+        <v>1407</v>
       </c>
       <c r="H173" t="s">
-        <v>1406</v>
+        <v>1408</v>
       </c>
       <c r="J173" t="s">
-        <v>1407</v>
+        <v>1409</v>
       </c>
       <c r="M173" t="s">
-        <v>1408</v>
+        <v>1410</v>
       </c>
       <c r="N173">
         <v>1122</v>
       </c>
       <c r="O173" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="P173">
         <v>0</v>
@@ -13512,18 +13565,18 @@
         <v>0</v>
       </c>
       <c r="W173" t="s">
-        <v>1410</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="174" spans="2:23">
       <c r="B174" t="s">
-        <v>1411</v>
+        <v>1413</v>
       </c>
       <c r="C174" t="s">
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="D174" t="s">
-        <v>1413</v>
+        <v>1415</v>
       </c>
       <c r="E174">
         <v>2021</v>
@@ -13532,22 +13585,22 @@
         <v>45798</v>
       </c>
       <c r="G174" t="s">
-        <v>1414</v>
+        <v>1416</v>
       </c>
       <c r="H174" t="s">
-        <v>1415</v>
+        <v>1417</v>
       </c>
       <c r="J174" t="s">
-        <v>1416</v>
+        <v>1418</v>
       </c>
       <c r="M174" t="s">
-        <v>1417</v>
+        <v>1419</v>
       </c>
       <c r="N174">
         <v>593</v>
       </c>
       <c r="O174" t="s">
-        <v>1418</v>
+        <v>1420</v>
       </c>
       <c r="P174">
         <v>0</v>
@@ -13559,39 +13612,39 @@
         <v>0</v>
       </c>
       <c r="W174" t="s">
-        <v>1414</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="175" spans="2:23">
       <c r="B175" t="s">
-        <v>1419</v>
+        <v>1421</v>
       </c>
       <c r="C175" t="s">
         <v>122</v>
       </c>
       <c r="D175" t="s">
-        <v>1420</v>
+        <v>1422</v>
       </c>
       <c r="E175">
         <v>2012</v>
       </c>
       <c r="G175" t="s">
-        <v>1421</v>
+        <v>1423</v>
       </c>
       <c r="H175" t="s">
-        <v>1422</v>
+        <v>1424</v>
       </c>
       <c r="J175" t="s">
-        <v>1423</v>
+        <v>1425</v>
       </c>
       <c r="M175" t="s">
-        <v>1424</v>
+        <v>1426</v>
       </c>
       <c r="N175">
         <v>2089</v>
       </c>
       <c r="O175" t="s">
-        <v>1425</v>
+        <v>1427</v>
       </c>
       <c r="P175">
         <v>0</v>
@@ -13603,39 +13656,39 @@
         <v>0</v>
       </c>
       <c r="W175" t="s">
-        <v>1426</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="176" spans="2:23">
       <c r="B176" t="s">
-        <v>1427</v>
+        <v>1429</v>
       </c>
       <c r="C176" t="s">
         <v>122</v>
       </c>
       <c r="D176" t="s">
-        <v>1428</v>
+        <v>1430</v>
       </c>
       <c r="E176">
         <v>2011</v>
       </c>
       <c r="G176" t="s">
-        <v>1429</v>
+        <v>1431</v>
       </c>
       <c r="H176" t="s">
-        <v>1430</v>
+        <v>1432</v>
       </c>
       <c r="J176" t="s">
-        <v>1431</v>
+        <v>1433</v>
       </c>
       <c r="M176" t="s">
-        <v>1432</v>
+        <v>1434</v>
       </c>
       <c r="N176">
         <v>2188</v>
       </c>
       <c r="O176" t="s">
-        <v>1433</v>
+        <v>1435</v>
       </c>
       <c r="P176">
         <v>0</v>
@@ -13647,39 +13700,39 @@
         <v>0</v>
       </c>
       <c r="W176" t="s">
-        <v>1434</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="177" spans="2:23">
       <c r="B177" t="s">
-        <v>1435</v>
+        <v>1437</v>
       </c>
       <c r="C177" t="s">
-        <v>1436</v>
+        <v>1438</v>
       </c>
       <c r="D177" t="s">
-        <v>1437</v>
+        <v>1439</v>
       </c>
       <c r="E177">
         <v>2013</v>
       </c>
       <c r="G177" t="s">
-        <v>1438</v>
+        <v>1440</v>
       </c>
       <c r="H177" t="s">
-        <v>1439</v>
+        <v>1441</v>
       </c>
       <c r="J177" t="s">
-        <v>1440</v>
+        <v>1442</v>
       </c>
       <c r="M177" t="s">
-        <v>1441</v>
+        <v>1443</v>
       </c>
       <c r="N177">
         <v>1982</v>
       </c>
       <c r="O177" t="s">
-        <v>1442</v>
+        <v>1444</v>
       </c>
       <c r="P177">
         <v>0</v>
@@ -13691,39 +13744,39 @@
         <v>0</v>
       </c>
       <c r="W177" t="s">
-        <v>1438</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="178" spans="2:23">
       <c r="B178" t="s">
-        <v>1443</v>
+        <v>1445</v>
       </c>
       <c r="C178" t="s">
-        <v>1444</v>
+        <v>1446</v>
       </c>
       <c r="D178" t="s">
-        <v>1445</v>
+        <v>1447</v>
       </c>
       <c r="E178">
         <v>2020</v>
       </c>
       <c r="G178" t="s">
-        <v>1446</v>
+        <v>1448</v>
       </c>
       <c r="H178" t="s">
-        <v>1447</v>
+        <v>1449</v>
       </c>
       <c r="J178" t="s">
-        <v>1448</v>
+        <v>1450</v>
       </c>
       <c r="M178" t="s">
-        <v>1449</v>
+        <v>1451</v>
       </c>
       <c r="N178">
         <v>896</v>
       </c>
       <c r="O178" t="s">
-        <v>1450</v>
+        <v>1452</v>
       </c>
       <c r="P178">
         <v>0</v>
@@ -13735,39 +13788,39 @@
         <v>0</v>
       </c>
       <c r="W178" t="s">
-        <v>1446</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="179" spans="2:23">
       <c r="B179" t="s">
-        <v>1451</v>
+        <v>1453</v>
       </c>
       <c r="C179" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="D179" t="s">
-        <v>1452</v>
+        <v>1454</v>
       </c>
       <c r="E179">
         <v>2019</v>
       </c>
       <c r="G179" t="s">
-        <v>1453</v>
+        <v>1455</v>
       </c>
       <c r="H179" t="s">
-        <v>1454</v>
+        <v>1456</v>
       </c>
       <c r="J179" t="s">
-        <v>1455</v>
+        <v>1457</v>
       </c>
       <c r="M179" t="s">
-        <v>1456</v>
+        <v>1458</v>
       </c>
       <c r="N179">
         <v>968</v>
       </c>
       <c r="O179" t="s">
-        <v>1457</v>
+        <v>1459</v>
       </c>
       <c r="P179">
         <v>0</v>
@@ -13779,42 +13832,42 @@
         <v>0</v>
       </c>
       <c r="U179" t="s">
-        <v>1458</v>
+        <v>1460</v>
       </c>
       <c r="W179" t="s">
-        <v>1453</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="180" spans="2:23">
       <c r="B180" t="s">
-        <v>1459</v>
+        <v>1461</v>
       </c>
       <c r="C180" t="s">
         <v>131</v>
       </c>
       <c r="D180" t="s">
-        <v>1460</v>
+        <v>1462</v>
       </c>
       <c r="E180">
         <v>2016</v>
       </c>
       <c r="G180" t="s">
-        <v>1461</v>
+        <v>1463</v>
       </c>
       <c r="H180" t="s">
-        <v>1462</v>
+        <v>1464</v>
       </c>
       <c r="J180" t="s">
-        <v>1463</v>
+        <v>1465</v>
       </c>
       <c r="M180" t="s">
-        <v>1464</v>
+        <v>1466</v>
       </c>
       <c r="N180">
         <v>1545</v>
       </c>
       <c r="O180" t="s">
-        <v>1465</v>
+        <v>1467</v>
       </c>
       <c r="P180">
         <v>0</v>
@@ -13826,7 +13879,7 @@
         <v>0</v>
       </c>
       <c r="W180" t="s">
-        <v>1461</v>
+        <v>1463</v>
       </c>
     </row>
   </sheetData>
